--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -8361,17 +8361,13 @@
         <v>50.50000000000003</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K228" t="n">
-        <v>50.3</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
@@ -8411,11 +8407,7 @@
       <c r="K229" t="n">
         <v>50.3</v>
       </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8497,7 +8489,11 @@
       <c r="K231" t="n">
         <v>50.3</v>
       </c>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8531,16 +8527,12 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="K232" t="n">
         <v>50.3</v>
       </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8620,9 +8612,13 @@
         <v>50.2</v>
       </c>
       <c r="K234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="L234" t="inlineStr"/>
+        <v>50.3</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.7</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="D2" t="n">
-        <v>51.7</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="F2" t="n">
-        <v>25640</v>
+        <v>16411</v>
       </c>
       <c r="G2" t="n">
-        <v>51.86</v>
+        <v>51.69666666666662</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="C3" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="D3" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="E3" t="n">
         <v>51.6</v>
       </c>
       <c r="F3" t="n">
-        <v>1873.8588</v>
+        <v>25640</v>
       </c>
       <c r="G3" t="n">
-        <v>51.78000000000001</v>
+        <v>51.69166666666662</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="C4" t="n">
         <v>51.6</v>
@@ -512,13 +512,13 @@
         <v>51.6</v>
       </c>
       <c r="E4" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="F4" t="n">
-        <v>7071.9335</v>
+        <v>1873.8588</v>
       </c>
       <c r="G4" t="n">
-        <v>51.70000000000001</v>
+        <v>51.71166666666662</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="C5" t="n">
         <v>51.6</v>
@@ -547,13 +547,13 @@
         <v>51.6</v>
       </c>
       <c r="E5" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1512.8911</v>
+        <v>7071.9335</v>
       </c>
       <c r="G5" t="n">
-        <v>51.66000000000001</v>
+        <v>51.71999999999995</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="C6" t="n">
         <v>51.6</v>
       </c>
       <c r="D6" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="E6" t="n">
         <v>51.6</v>
       </c>
       <c r="F6" t="n">
-        <v>31449.0368</v>
+        <v>1512.8911</v>
       </c>
       <c r="G6" t="n">
-        <v>51.62000000000002</v>
+        <v>51.72833333333328</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="C7" t="n">
         <v>51.6</v>
       </c>
       <c r="D7" t="n">
-        <v>51.6</v>
+        <v>51.7</v>
       </c>
       <c r="E7" t="n">
         <v>51.6</v>
       </c>
       <c r="F7" t="n">
-        <v>32886.0739</v>
+        <v>31449.0368</v>
       </c>
       <c r="G7" t="n">
-        <v>51.60000000000002</v>
+        <v>51.72833333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>51.6</v>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>51.6</v>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>51.6</v>
       </c>
       <c r="E8" t="n">
         <v>51.6</v>
       </c>
       <c r="F8" t="n">
-        <v>4907.8607</v>
+        <v>32886.0739</v>
       </c>
       <c r="G8" t="n">
-        <v>51.68000000000002</v>
+        <v>51.72499999999994</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="C9" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>51.8</v>
+        <v>51.6</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>4907.8607</v>
       </c>
       <c r="G9" t="n">
-        <v>51.72000000000001</v>
+        <v>51.72833333333327</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="C10" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="F10" t="n">
-        <v>4306.9223</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>51.80000000000001</v>
+        <v>51.72833333333327</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>52.7</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>52.7</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
-        <v>2400</v>
+        <v>4306.9223</v>
       </c>
       <c r="G11" t="n">
-        <v>52.02</v>
+        <v>51.73166666666661</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C12" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="D12" t="n">
-        <v>52.2</v>
+        <v>52.7</v>
       </c>
       <c r="E12" t="n">
         <v>52.1</v>
       </c>
       <c r="F12" t="n">
-        <v>1000.9999</v>
+        <v>2400</v>
       </c>
       <c r="G12" t="n">
-        <v>52.12</v>
+        <v>51.7466666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C13" t="n">
         <v>52.1</v>
       </c>
-      <c r="C13" t="n">
-        <v>52</v>
-      </c>
       <c r="D13" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="E13" t="n">
         <v>52.1</v>
       </c>
-      <c r="E13" t="n">
-        <v>52</v>
-      </c>
       <c r="F13" t="n">
-        <v>3735</v>
+        <v>1000.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>52.12</v>
+        <v>51.75166666666659</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C14" t="n">
         <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E14" t="n">
         <v>52</v>
       </c>
       <c r="F14" t="n">
-        <v>14558</v>
+        <v>3735</v>
       </c>
       <c r="G14" t="n">
-        <v>52.16</v>
+        <v>51.75499999999992</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="F15" t="n">
-        <v>870.9999</v>
+        <v>14558</v>
       </c>
       <c r="G15" t="n">
-        <v>52.14</v>
+        <v>51.75833333333325</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>51.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1771.0759</v>
+        <v>870.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>51.98</v>
+        <v>51.75999999999992</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="C17" t="n">
         <v>51.9</v>
@@ -967,13 +967,13 @@
         <v>51.9</v>
       </c>
       <c r="E17" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="F17" t="n">
-        <v>10924.0431</v>
+        <v>1771.0759</v>
       </c>
       <c r="G17" t="n">
-        <v>51.93999999999998</v>
+        <v>51.76166666666659</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="C18" t="n">
         <v>51.9</v>
@@ -1002,13 +1002,13 @@
         <v>51.9</v>
       </c>
       <c r="E18" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="F18" t="n">
-        <v>5249.5062</v>
+        <v>10924.0431</v>
       </c>
       <c r="G18" t="n">
-        <v>51.91999999999998</v>
+        <v>51.76333333333325</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>51.9</v>
       </c>
       <c r="F19" t="n">
-        <v>753.8116</v>
+        <v>5249.5062</v>
       </c>
       <c r="G19" t="n">
-        <v>51.89999999999998</v>
+        <v>51.76499999999992</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="C20" t="n">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="D20" t="n">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="E20" t="n">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="F20" t="n">
-        <v>961</v>
+        <v>753.8116</v>
       </c>
       <c r="G20" t="n">
-        <v>51.81999999999998</v>
+        <v>51.76666666666658</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>51.3</v>
+        <v>51.5</v>
       </c>
       <c r="C21" t="n">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="D21" t="n">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="E21" t="n">
-        <v>51.3</v>
+        <v>51.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1952.4947</v>
+        <v>961</v>
       </c>
       <c r="G21" t="n">
-        <v>51.71999999999998</v>
+        <v>51.76499999999992</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>51.3</v>
       </c>
       <c r="C22" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="D22" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="E22" t="n">
         <v>51.3</v>
       </c>
       <c r="F22" t="n">
-        <v>965.3708</v>
+        <v>1952.4947</v>
       </c>
       <c r="G22" t="n">
-        <v>51.59999999999999</v>
+        <v>51.76166666666659</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="C23" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="D23" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="E23" t="n">
-        <v>51.4</v>
+        <v>51.3</v>
       </c>
       <c r="F23" t="n">
-        <v>8600</v>
+        <v>965.3708</v>
       </c>
       <c r="G23" t="n">
-        <v>51.49999999999999</v>
+        <v>51.75499999999992</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>51.4</v>
       </c>
       <c r="C24" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="D24" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="E24" t="n">
         <v>51.4</v>
       </c>
       <c r="F24" t="n">
-        <v>19225</v>
+        <v>8600</v>
       </c>
       <c r="G24" t="n">
-        <v>51.48</v>
+        <v>51.74999999999993</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="C25" t="n">
         <v>51.8</v>
@@ -1247,13 +1247,13 @@
         <v>51.8</v>
       </c>
       <c r="E25" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="F25" t="n">
-        <v>772.2007722</v>
+        <v>19225</v>
       </c>
       <c r="G25" t="n">
-        <v>51.54</v>
+        <v>51.7516666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="C26" t="n">
-        <v>52.7</v>
+        <v>51.8</v>
       </c>
       <c r="D26" t="n">
-        <v>52.8</v>
+        <v>51.8</v>
       </c>
       <c r="E26" t="n">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="F26" t="n">
-        <v>10483.7395</v>
+        <v>772.2007722</v>
       </c>
       <c r="G26" t="n">
-        <v>51.8</v>
+        <v>51.75333333333328</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.3</v>
+        <v>51.7</v>
       </c>
       <c r="C27" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="D27" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="E27" t="n">
-        <v>52.3</v>
+        <v>51.7</v>
       </c>
       <c r="F27" t="n">
-        <v>5046.768</v>
+        <v>10483.7395</v>
       </c>
       <c r="G27" t="n">
-        <v>52.02</v>
+        <v>51.76999999999995</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="F28" t="n">
-        <v>5574.4</v>
+        <v>5046.768</v>
       </c>
       <c r="G28" t="n">
-        <v>52.14</v>
+        <v>51.78166666666662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C29" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="D29" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="F29" t="n">
-        <v>1720.257</v>
+        <v>5574.4</v>
       </c>
       <c r="G29" t="n">
-        <v>52.14</v>
+        <v>51.78499999999995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.2</v>
+        <v>51.9</v>
       </c>
       <c r="C30" t="n">
-        <v>52.3</v>
+        <v>51.8</v>
       </c>
       <c r="D30" t="n">
-        <v>52.3</v>
+        <v>51.9</v>
       </c>
       <c r="E30" t="n">
-        <v>52.2</v>
+        <v>51.8</v>
       </c>
       <c r="F30" t="n">
-        <v>32304</v>
+        <v>1720.257</v>
       </c>
       <c r="G30" t="n">
-        <v>52.23999999999999</v>
+        <v>51.78666666666662</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C31" t="n">
         <v>52.3</v>
@@ -1457,13 +1457,13 @@
         <v>52.3</v>
       </c>
       <c r="E31" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F31" t="n">
-        <v>2700</v>
+        <v>32304</v>
       </c>
       <c r="G31" t="n">
-        <v>52.16</v>
+        <v>51.79666666666662</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>52.3</v>
       </c>
       <c r="F32" t="n">
-        <v>63.1037</v>
+        <v>2700</v>
       </c>
       <c r="G32" t="n">
-        <v>52.14000000000001</v>
+        <v>51.80666666666663</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="C33" t="n">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="D33" t="n">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="E33" t="n">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="F33" t="n">
-        <v>3874</v>
+        <v>63.1037</v>
       </c>
       <c r="G33" t="n">
-        <v>52.30000000000001</v>
+        <v>51.81666666666663</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52.2</v>
+        <v>52.7</v>
       </c>
       <c r="C34" t="n">
-        <v>52.1</v>
+        <v>52.8</v>
       </c>
       <c r="D34" t="n">
-        <v>52.2</v>
+        <v>52.8</v>
       </c>
       <c r="E34" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="F34" t="n">
-        <v>6413.4211</v>
+        <v>3874</v>
       </c>
       <c r="G34" t="n">
-        <v>52.36000000000001</v>
+        <v>51.83499999999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="C35" t="n">
-        <v>52.5</v>
+        <v>52.1</v>
       </c>
       <c r="D35" t="n">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="E35" t="n">
-        <v>52.5</v>
+        <v>52.1</v>
       </c>
       <c r="F35" t="n">
-        <v>2664</v>
+        <v>6413.4211</v>
       </c>
       <c r="G35" t="n">
-        <v>52.40000000000001</v>
+        <v>51.84166666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C36" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="D36" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="E36" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1190</v>
+        <v>2664</v>
       </c>
       <c r="G36" t="n">
-        <v>52.42</v>
+        <v>51.85499999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>52.4</v>
       </c>
       <c r="F37" t="n">
-        <v>5668.8139</v>
+        <v>1190</v>
       </c>
       <c r="G37" t="n">
-        <v>52.44</v>
+        <v>51.86666666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="C38" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D38" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="E38" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2112</v>
+        <v>5668.8139</v>
       </c>
       <c r="G38" t="n">
-        <v>52.34</v>
+        <v>51.87833333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>52.3</v>
       </c>
       <c r="F39" t="n">
-        <v>5315.5258</v>
+        <v>2112</v>
       </c>
       <c r="G39" t="n">
-        <v>52.38</v>
+        <v>51.88833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>52.3</v>
       </c>
       <c r="F40" t="n">
-        <v>79</v>
+        <v>5315.5258</v>
       </c>
       <c r="G40" t="n">
-        <v>52.34</v>
+        <v>51.89833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>52.3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8479</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
-        <v>52.32000000000001</v>
+        <v>51.90833333333334</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>52.3</v>
       </c>
       <c r="F42" t="n">
-        <v>22187.8833</v>
+        <v>0.8479</v>
       </c>
       <c r="G42" t="n">
-        <v>52.30000000000001</v>
+        <v>51.91833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C43" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="D43" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="E43" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="F43" t="n">
-        <v>9547.0106</v>
+        <v>22187.8833</v>
       </c>
       <c r="G43" t="n">
-        <v>52.32000000000001</v>
+        <v>51.92833333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="C44" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D44" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="E44" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="F44" t="n">
-        <v>20953.7384</v>
+        <v>9547.0106</v>
       </c>
       <c r="G44" t="n">
-        <v>52.32000000000001</v>
+        <v>51.94000000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>52.3</v>
       </c>
       <c r="F45" t="n">
-        <v>93.0562</v>
+        <v>20953.7384</v>
       </c>
       <c r="G45" t="n">
-        <v>52.32000000000001</v>
+        <v>51.95000000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>52.3</v>
       </c>
       <c r="F46" t="n">
-        <v>207.1235</v>
+        <v>93.0562</v>
       </c>
       <c r="G46" t="n">
-        <v>52.32000000000001</v>
+        <v>51.96000000000004</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="C47" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="D47" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="E47" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="F47" t="n">
-        <v>4059.1033</v>
+        <v>207.1235</v>
       </c>
       <c r="G47" t="n">
-        <v>52.36</v>
+        <v>51.97000000000004</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C48" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="D48" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="E48" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="F48" t="n">
-        <v>269.5005</v>
+        <v>4059.1033</v>
       </c>
       <c r="G48" t="n">
-        <v>52.40000000000001</v>
+        <v>51.98333333333338</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="C49" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="D49" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="E49" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="F49" t="n">
-        <v>10.2742</v>
+        <v>269.5005</v>
       </c>
       <c r="G49" t="n">
-        <v>52.40000000000001</v>
+        <v>51.99833333333338</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="C50" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="D50" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="E50" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="F50" t="n">
-        <v>5085.0845</v>
+        <v>10.2742</v>
       </c>
       <c r="G50" t="n">
-        <v>52.46000000000002</v>
+        <v>52.00833333333339</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>52.6</v>
       </c>
       <c r="F51" t="n">
-        <v>2731</v>
+        <v>5085.0845</v>
       </c>
       <c r="G51" t="n">
-        <v>52.52000000000002</v>
+        <v>52.02333333333339</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>52.6</v>
       </c>
       <c r="F52" t="n">
-        <v>935.3076</v>
+        <v>2731</v>
       </c>
       <c r="G52" t="n">
-        <v>52.54000000000002</v>
+        <v>52.03833333333339</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>52.6</v>
       </c>
       <c r="F53" t="n">
-        <v>651.6794</v>
+        <v>935.3076</v>
       </c>
       <c r="G53" t="n">
-        <v>52.54000000000002</v>
+        <v>52.05333333333339</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>52.6</v>
       </c>
       <c r="F54" t="n">
-        <v>1387.355</v>
+        <v>651.6794</v>
       </c>
       <c r="G54" t="n">
-        <v>52.60000000000002</v>
+        <v>52.06833333333339</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C55" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="D55" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E55" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="F55" t="n">
-        <v>5350.4938</v>
+        <v>1387.355</v>
       </c>
       <c r="G55" t="n">
-        <v>52.54000000000002</v>
+        <v>52.08333333333339</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="C56" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="D56" t="n">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="E56" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="F56" t="n">
-        <v>33.1106</v>
+        <v>5350.4938</v>
       </c>
       <c r="G56" t="n">
-        <v>52.42000000000002</v>
+        <v>52.0933333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C57" t="n">
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="D57" t="n">
-        <v>52.6</v>
+        <v>52</v>
       </c>
       <c r="E57" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F57" t="n">
-        <v>30800</v>
+        <v>33.1106</v>
       </c>
       <c r="G57" t="n">
-        <v>52.42000000000002</v>
+        <v>52.0983333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="C58" t="n">
-        <v>52</v>
+        <v>52.6</v>
       </c>
       <c r="D58" t="n">
-        <v>52.4</v>
+        <v>52.6</v>
       </c>
       <c r="E58" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F58" t="n">
-        <v>6734.3368</v>
+        <v>30800</v>
       </c>
       <c r="G58" t="n">
-        <v>52.30000000000001</v>
+        <v>52.11166666666673</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C59" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="D59" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="E59" t="n">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="F59" t="n">
-        <v>8401.9084</v>
+        <v>6734.3368</v>
       </c>
       <c r="G59" t="n">
-        <v>52.28000000000001</v>
+        <v>52.11166666666673</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>52.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>8401.9084</v>
       </c>
       <c r="G60" t="n">
-        <v>52.32000000000001</v>
+        <v>52.12000000000007</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C61" t="n">
         <v>52.5</v>
@@ -2507,13 +2507,13 @@
         <v>52.5</v>
       </c>
       <c r="E61" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="F61" t="n">
-        <v>29507.05860666</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>52.42</v>
+        <v>52.13166666666673</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C62" t="n">
         <v>52.5</v>
@@ -2542,13 +2542,13 @@
         <v>52.5</v>
       </c>
       <c r="E62" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="F62" t="n">
-        <v>3940.6916</v>
+        <v>29507.05860666</v>
       </c>
       <c r="G62" t="n">
-        <v>52.4</v>
+        <v>52.14333333333339</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="C63" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="D63" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="E63" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="F63" t="n">
-        <v>82424.07670000001</v>
+        <v>3940.6916</v>
       </c>
       <c r="G63" t="n">
-        <v>52.42</v>
+        <v>52.15666666666673</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>52.6</v>
+        <v>52.2</v>
       </c>
       <c r="C64" t="n">
         <v>52.1</v>
       </c>
       <c r="D64" t="n">
-        <v>52.6</v>
+        <v>52.2</v>
       </c>
       <c r="E64" t="n">
         <v>52.1</v>
       </c>
       <c r="F64" t="n">
-        <v>29453.2909</v>
+        <v>82424.07670000001</v>
       </c>
       <c r="G64" t="n">
-        <v>52.34000000000001</v>
+        <v>52.16500000000006</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C65" t="n">
         <v>52.1</v>
       </c>
       <c r="D65" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E65" t="n">
         <v>52.1</v>
       </c>
       <c r="F65" t="n">
-        <v>8760.1738</v>
+        <v>29453.2909</v>
       </c>
       <c r="G65" t="n">
-        <v>52.26000000000001</v>
+        <v>52.1733333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="C66" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D66" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="E66" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F66" t="n">
-        <v>573.9976</v>
+        <v>8760.1738</v>
       </c>
       <c r="G66" t="n">
-        <v>52.20000000000001</v>
+        <v>52.18166666666673</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>52.4</v>
+        <v>52.2</v>
       </c>
       <c r="C67" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="D67" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="E67" t="n">
-        <v>52.4</v>
+        <v>52.2</v>
       </c>
       <c r="F67" t="n">
-        <v>70676.4906</v>
+        <v>573.9976</v>
       </c>
       <c r="G67" t="n">
-        <v>52.24000000000001</v>
+        <v>52.19166666666673</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="C68" t="n">
-        <v>52.1</v>
+        <v>52.7</v>
       </c>
       <c r="D68" t="n">
-        <v>52.3</v>
+        <v>52.7</v>
       </c>
       <c r="E68" t="n">
-        <v>52.1</v>
+        <v>52.4</v>
       </c>
       <c r="F68" t="n">
-        <v>22629.2739</v>
+        <v>70676.4906</v>
       </c>
       <c r="G68" t="n">
-        <v>52.24000000000001</v>
+        <v>52.21000000000006</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="C69" t="n">
         <v>52.1</v>
       </c>
       <c r="D69" t="n">
-        <v>52.1</v>
+        <v>52.3</v>
       </c>
       <c r="E69" t="n">
         <v>52.1</v>
       </c>
       <c r="F69" t="n">
-        <v>2959.7505</v>
+        <v>22629.2739</v>
       </c>
       <c r="G69" t="n">
-        <v>52.24000000000001</v>
+        <v>52.21166666666672</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C70" t="n">
         <v>52.1</v>
       </c>
       <c r="D70" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E70" t="n">
         <v>52.1</v>
       </c>
       <c r="F70" t="n">
-        <v>1618.2137</v>
+        <v>2959.7505</v>
       </c>
       <c r="G70" t="n">
-        <v>52.24000000000001</v>
+        <v>52.21666666666672</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="C71" t="n">
         <v>52.1</v>
       </c>
       <c r="D71" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="E71" t="n">
         <v>52.1</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>1618.2137</v>
       </c>
       <c r="G71" t="n">
-        <v>52.22000000000001</v>
+        <v>52.21833333333338</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>52.1</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>52.10000000000002</v>
+        <v>52.20833333333339</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>52.1</v>
       </c>
       <c r="F73" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>52.10000000000002</v>
+        <v>52.20833333333339</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C74" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D74" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E74" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F74" t="n">
-        <v>874</v>
+        <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>52.12000000000002</v>
+        <v>52.21000000000005</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="C75" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="D75" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="E75" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4042.5186</v>
+        <v>874</v>
       </c>
       <c r="G75" t="n">
-        <v>52.24000000000001</v>
+        <v>52.21333333333338</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>52.7</v>
       </c>
       <c r="F76" t="n">
-        <v>1390</v>
+        <v>4042.5186</v>
       </c>
       <c r="G76" t="n">
-        <v>52.36</v>
+        <v>52.22666666666671</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C77" t="n">
         <v>52.7</v>
       </c>
       <c r="D77" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="E77" t="n">
         <v>52.7</v>
       </c>
       <c r="F77" t="n">
-        <v>18740</v>
+        <v>1390</v>
       </c>
       <c r="G77" t="n">
-        <v>52.48</v>
+        <v>52.24000000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C78" t="n">
         <v>52.7</v>
-      </c>
-      <c r="C78" t="n">
-        <v>52.8</v>
       </c>
       <c r="D78" t="n">
         <v>52.8</v>
@@ -3105,10 +3105,10 @@
         <v>52.7</v>
       </c>
       <c r="F78" t="n">
-        <v>3082.0566</v>
+        <v>18740</v>
       </c>
       <c r="G78" t="n">
-        <v>52.61999999999999</v>
+        <v>52.25333333333337</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C79" t="n">
         <v>52.8</v>
@@ -3137,13 +3137,13 @@
         <v>52.8</v>
       </c>
       <c r="E79" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F79" t="n">
-        <v>1772.1088278</v>
+        <v>3082.0566</v>
       </c>
       <c r="G79" t="n">
-        <v>52.73999999999999</v>
+        <v>52.26833333333337</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C80" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D80" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="E80" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F80" t="n">
-        <v>3018.6843</v>
+        <v>1772.1088278</v>
       </c>
       <c r="G80" t="n">
-        <v>52.77999999999999</v>
+        <v>52.28333333333337</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>52.9</v>
       </c>
       <c r="C81" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D81" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E81" t="n">
         <v>52.9</v>
       </c>
       <c r="F81" t="n">
-        <v>8948.3565</v>
+        <v>3018.6843</v>
       </c>
       <c r="G81" t="n">
-        <v>52.84</v>
+        <v>52.30666666666671</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C82" t="n">
         <v>53</v>
@@ -3242,13 +3242,13 @@
         <v>53</v>
       </c>
       <c r="E82" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F82" t="n">
-        <v>1250</v>
+        <v>8948.3565</v>
       </c>
       <c r="G82" t="n">
-        <v>52.9</v>
+        <v>52.33333333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C83" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D83" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E83" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F83" t="n">
-        <v>25903.3865</v>
+        <v>1250</v>
       </c>
       <c r="G83" t="n">
-        <v>52.96</v>
+        <v>52.3616666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C84" t="n">
         <v>53.1</v>
       </c>
-      <c r="C84" t="n">
-        <v>53.5</v>
-      </c>
       <c r="D84" t="n">
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="E84" t="n">
-        <v>53.1</v>
+        <v>52.9</v>
       </c>
       <c r="F84" t="n">
-        <v>35677.4808</v>
+        <v>25903.3865</v>
       </c>
       <c r="G84" t="n">
-        <v>53.1</v>
+        <v>52.39000000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="C85" t="n">
         <v>53.5</v>
@@ -3347,13 +3347,13 @@
         <v>53.5</v>
       </c>
       <c r="E85" t="n">
-        <v>53.5</v>
+        <v>53.1</v>
       </c>
       <c r="F85" t="n">
-        <v>1600</v>
+        <v>35677.4808</v>
       </c>
       <c r="G85" t="n">
-        <v>53.22000000000001</v>
+        <v>52.41833333333336</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="C86" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="D86" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="E86" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="F86" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="G86" t="n">
-        <v>53.36</v>
+        <v>52.44666666666669</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="C87" t="n">
-        <v>52.8</v>
+        <v>53.7</v>
       </c>
       <c r="D87" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="E87" t="n">
-        <v>52.8</v>
+        <v>53.7</v>
       </c>
       <c r="F87" t="n">
-        <v>9844.5954</v>
+        <v>2500</v>
       </c>
       <c r="G87" t="n">
-        <v>53.32000000000001</v>
+        <v>52.46333333333336</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,28 +3443,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="C88" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="D88" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="E88" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="F88" t="n">
-        <v>90</v>
+        <v>9844.5954</v>
       </c>
       <c r="G88" t="n">
-        <v>53.27999999999999</v>
+        <v>52.47000000000003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3490,10 +3490,10 @@
         <v>52.9</v>
       </c>
       <c r="F89" t="n">
-        <v>1836.9868</v>
+        <v>90</v>
       </c>
       <c r="G89" t="n">
-        <v>53.15999999999999</v>
+        <v>52.48500000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C90" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="D90" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E90" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="F90" t="n">
-        <v>9974.019399999999</v>
+        <v>1836.9868</v>
       </c>
       <c r="G90" t="n">
-        <v>52.99999999999999</v>
+        <v>52.50333333333336</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>52.8</v>
       </c>
       <c r="C91" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="D91" t="n">
         <v>52.8</v>
       </c>
       <c r="E91" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F91" t="n">
-        <v>2531.25</v>
+        <v>9974.019399999999</v>
       </c>
       <c r="G91" t="n">
-        <v>52.81999999999999</v>
+        <v>52.51000000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="C92" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="D92" t="n">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="E92" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="F92" t="n">
-        <v>37976.3124</v>
+        <v>2531.25</v>
       </c>
       <c r="G92" t="n">
-        <v>53.05999999999999</v>
+        <v>52.51833333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>53.9</v>
+        <v>53.2</v>
       </c>
       <c r="C93" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D93" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E93" t="n">
-        <v>53.9</v>
+        <v>53.2</v>
       </c>
       <c r="F93" t="n">
-        <v>780</v>
+        <v>37976.3124</v>
       </c>
       <c r="G93" t="n">
-        <v>53.25999999999999</v>
+        <v>52.54666666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>53.9</v>
       </c>
       <c r="C94" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="D94" t="n">
-        <v>54.6</v>
+        <v>53.9</v>
       </c>
       <c r="E94" t="n">
         <v>53.9</v>
       </c>
       <c r="F94" t="n">
-        <v>59267.458</v>
+        <v>780</v>
       </c>
       <c r="G94" t="n">
-        <v>53.48</v>
+        <v>52.56500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,28 +3688,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C95" t="n">
         <v>54</v>
-      </c>
-      <c r="C95" t="n">
-        <v>54.6</v>
       </c>
       <c r="D95" t="n">
         <v>54.6</v>
       </c>
       <c r="E95" t="n">
-        <v>54</v>
+        <v>53.9</v>
       </c>
       <c r="F95" t="n">
-        <v>5404.0775</v>
+        <v>59267.458</v>
       </c>
       <c r="G95" t="n">
-        <v>53.86</v>
+        <v>52.59666666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3723,28 +3723,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>54.2</v>
+        <v>54</v>
       </c>
       <c r="C96" t="n">
-        <v>54.2</v>
+        <v>54.6</v>
       </c>
       <c r="D96" t="n">
-        <v>54.2</v>
+        <v>54.6</v>
       </c>
       <c r="E96" t="n">
-        <v>54.2</v>
+        <v>54</v>
       </c>
       <c r="F96" t="n">
-        <v>1074.4434</v>
+        <v>5404.0775</v>
       </c>
       <c r="G96" t="n">
-        <v>54.14</v>
+        <v>52.63166666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3758,28 +3758,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="C97" t="n">
-        <v>54.6</v>
+        <v>54.2</v>
       </c>
       <c r="D97" t="n">
-        <v>54.6</v>
+        <v>54.2</v>
       </c>
       <c r="E97" t="n">
-        <v>54</v>
+        <v>54.2</v>
       </c>
       <c r="F97" t="n">
-        <v>55196.1396</v>
+        <v>1074.4434</v>
       </c>
       <c r="G97" t="n">
-        <v>54.26000000000001</v>
+        <v>52.66166666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3793,28 +3793,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C98" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="D98" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E98" t="n">
         <v>54</v>
       </c>
       <c r="F98" t="n">
-        <v>8092.3431</v>
+        <v>55196.1396</v>
       </c>
       <c r="G98" t="n">
-        <v>54.28000000000001</v>
+        <v>52.69833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C99" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="D99" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E99" t="n">
-        <v>53.8</v>
+        <v>54</v>
       </c>
       <c r="F99" t="n">
-        <v>3310.2162</v>
+        <v>8092.3431</v>
       </c>
       <c r="G99" t="n">
-        <v>54.24000000000001</v>
+        <v>52.72666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,28 +3863,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="C100" t="n">
-        <v>53.5</v>
+        <v>53.8</v>
       </c>
       <c r="D100" t="n">
-        <v>53.6</v>
+        <v>53.9</v>
       </c>
       <c r="E100" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="F100" t="n">
-        <v>28886.0271</v>
+        <v>3310.2162</v>
       </c>
       <c r="G100" t="n">
-        <v>54.02</v>
+        <v>52.75166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3898,28 +3898,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="C101" t="n">
         <v>53.5</v>
       </c>
       <c r="D101" t="n">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="E101" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="F101" t="n">
-        <v>786.1442</v>
+        <v>28886.0271</v>
       </c>
       <c r="G101" t="n">
-        <v>53.88000000000001</v>
+        <v>52.77166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="C102" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="D102" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="E102" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="F102" t="n">
-        <v>357.3929</v>
+        <v>786.1442</v>
       </c>
       <c r="G102" t="n">
-        <v>53.7</v>
+        <v>52.79166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>53.7</v>
       </c>
       <c r="F103" t="n">
-        <v>757.0505000000001</v>
+        <v>357.3929</v>
       </c>
       <c r="G103" t="n">
-        <v>53.64</v>
+        <v>52.81499999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="C104" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="D104" t="n">
-        <v>53.8</v>
+        <v>53.7</v>
       </c>
       <c r="E104" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="F104" t="n">
-        <v>3368</v>
+        <v>757.0505000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>53.55999999999999</v>
+        <v>52.83666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="C105" t="n">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="D105" t="n">
         <v>53.8</v>
       </c>
       <c r="E105" t="n">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="F105" t="n">
-        <v>296</v>
+        <v>3368</v>
       </c>
       <c r="G105" t="n">
-        <v>53.61999999999999</v>
+        <v>52.85499999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>53.8</v>
       </c>
       <c r="F106" t="n">
-        <v>1554</v>
+        <v>296</v>
       </c>
       <c r="G106" t="n">
-        <v>53.67999999999999</v>
+        <v>52.87999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>53.8</v>
       </c>
       <c r="F107" t="n">
-        <v>3281.7272</v>
+        <v>1554</v>
       </c>
       <c r="G107" t="n">
-        <v>53.7</v>
+        <v>52.90499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>53.8</v>
       </c>
       <c r="C108" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="D108" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="E108" t="n">
         <v>53.8</v>
       </c>
       <c r="F108" t="n">
-        <v>4064.3817</v>
+        <v>3281.7272</v>
       </c>
       <c r="G108" t="n">
-        <v>53.73999999999999</v>
+        <v>52.92666666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>54.5</v>
+        <v>53.8</v>
       </c>
       <c r="C109" t="n">
-        <v>54.6</v>
+        <v>53.9</v>
       </c>
       <c r="D109" t="n">
-        <v>54.6</v>
+        <v>53.9</v>
       </c>
       <c r="E109" t="n">
-        <v>54.5</v>
+        <v>53.8</v>
       </c>
       <c r="F109" t="n">
-        <v>2600</v>
+        <v>4064.3817</v>
       </c>
       <c r="G109" t="n">
-        <v>53.98</v>
+        <v>52.94833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>54</v>
+        <v>54.5</v>
       </c>
       <c r="C110" t="n">
-        <v>53.5</v>
+        <v>54.6</v>
       </c>
       <c r="D110" t="n">
-        <v>54</v>
+        <v>54.6</v>
       </c>
       <c r="E110" t="n">
-        <v>53.5</v>
+        <v>54.5</v>
       </c>
       <c r="F110" t="n">
-        <v>5482.5179</v>
+        <v>2600</v>
       </c>
       <c r="G110" t="n">
-        <v>53.92</v>
+        <v>52.98666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="C111" t="n">
         <v>53.5</v>
       </c>
       <c r="D111" t="n">
-        <v>54.6</v>
+        <v>54</v>
       </c>
       <c r="E111" t="n">
         <v>53.5</v>
       </c>
       <c r="F111" t="n">
-        <v>17748.5164</v>
+        <v>5482.5179</v>
       </c>
       <c r="G111" t="n">
-        <v>53.86</v>
+        <v>53.00166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C112" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="D112" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="E112" t="n">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F112" t="n">
-        <v>752.0203</v>
+        <v>17748.5164</v>
       </c>
       <c r="G112" t="n">
-        <v>54</v>
+        <v>53.01666666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>54.5</v>
       </c>
       <c r="F113" t="n">
-        <v>17356.1175</v>
+        <v>752.0203</v>
       </c>
       <c r="G113" t="n">
-        <v>54.12</v>
+        <v>53.04833333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4359,16 +4359,16 @@
         <v>54.5</v>
       </c>
       <c r="D114" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E114" t="n">
         <v>54.5</v>
       </c>
       <c r="F114" t="n">
-        <v>21646.7279</v>
+        <v>17356.1175</v>
       </c>
       <c r="G114" t="n">
-        <v>54.1</v>
+        <v>53.08</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4394,16 +4394,16 @@
         <v>54.5</v>
       </c>
       <c r="D115" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="E115" t="n">
         <v>54.5</v>
       </c>
       <c r="F115" t="n">
-        <v>7412.0499</v>
+        <v>21646.7279</v>
       </c>
       <c r="G115" t="n">
-        <v>54.3</v>
+        <v>53.11166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="C116" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="D116" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E116" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="F116" t="n">
-        <v>17000</v>
+        <v>7412.0499</v>
       </c>
       <c r="G116" t="n">
-        <v>54.52</v>
+        <v>53.14833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>54.6</v>
       </c>
       <c r="F117" t="n">
-        <v>11761.0943</v>
+        <v>17000</v>
       </c>
       <c r="G117" t="n">
-        <v>54.54000000000001</v>
+        <v>53.19166666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="C118" t="n">
         <v>54.6</v>
       </c>
       <c r="D118" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E118" t="n">
         <v>54.6</v>
       </c>
       <c r="F118" t="n">
-        <v>22570.8195</v>
+        <v>11761.0943</v>
       </c>
       <c r="G118" t="n">
-        <v>54.56000000000002</v>
+        <v>53.22499999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="C119" t="n">
         <v>54.6</v>
       </c>
       <c r="D119" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="E119" t="n">
         <v>54.6</v>
       </c>
       <c r="F119" t="n">
-        <v>33405.1332</v>
+        <v>22570.8195</v>
       </c>
       <c r="G119" t="n">
-        <v>54.58000000000002</v>
+        <v>53.26833333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="C120" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="D120" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="E120" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="F120" t="n">
-        <v>589.9792</v>
+        <v>33405.1332</v>
       </c>
       <c r="G120" t="n">
-        <v>54.62000000000002</v>
+        <v>53.30333333333332</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="C121" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="D121" t="n">
-        <v>54.8</v>
+        <v>54.7</v>
       </c>
       <c r="E121" t="n">
-        <v>54</v>
+        <v>54.7</v>
       </c>
       <c r="F121" t="n">
-        <v>68862.2539</v>
+        <v>589.9792</v>
       </c>
       <c r="G121" t="n">
-        <v>54.50000000000001</v>
+        <v>53.33999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C122" t="n">
         <v>54</v>
       </c>
-      <c r="C122" t="n">
-        <v>53.3</v>
-      </c>
       <c r="D122" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E122" t="n">
         <v>54</v>
       </c>
-      <c r="E122" t="n">
-        <v>53.3</v>
-      </c>
       <c r="F122" t="n">
-        <v>22859.3419</v>
+        <v>68862.2539</v>
       </c>
       <c r="G122" t="n">
-        <v>54.24000000000001</v>
+        <v>53.36499999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="C123" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D123" t="n">
-        <v>53.4</v>
+        <v>54</v>
       </c>
       <c r="E123" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F123" t="n">
-        <v>6100</v>
+        <v>22859.3419</v>
       </c>
       <c r="G123" t="n">
-        <v>54</v>
+        <v>53.37833333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="C124" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="D124" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="E124" t="n">
-        <v>54.5</v>
+        <v>53.4</v>
       </c>
       <c r="F124" t="n">
-        <v>700</v>
+        <v>6100</v>
       </c>
       <c r="G124" t="n">
-        <v>53.98</v>
+        <v>53.39999999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="C125" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="D125" t="n">
         <v>54.5</v>
       </c>
       <c r="E125" t="n">
-        <v>54.4</v>
+        <v>54.5</v>
       </c>
       <c r="F125" t="n">
-        <v>3166.9999</v>
+        <v>700</v>
       </c>
       <c r="G125" t="n">
-        <v>53.91999999999999</v>
+        <v>53.43999999999999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>54.4</v>
       </c>
       <c r="C126" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="D126" t="n">
         <v>54.5</v>
@@ -4785,10 +4785,10 @@
         <v>54.4</v>
       </c>
       <c r="F126" t="n">
-        <v>2245.5455</v>
+        <v>3166.9999</v>
       </c>
       <c r="G126" t="n">
-        <v>54.02</v>
+        <v>53.47833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C127" t="n">
         <v>54.5</v>
       </c>
-      <c r="C127" t="n">
-        <v>54.7</v>
-      </c>
       <c r="D127" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="E127" t="n">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="F127" t="n">
-        <v>3520</v>
+        <v>2245.5455</v>
       </c>
       <c r="G127" t="n">
-        <v>54.29999999999999</v>
+        <v>53.51666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>53.6</v>
+        <v>54.5</v>
       </c>
       <c r="C128" t="n">
-        <v>53.4</v>
+        <v>54.7</v>
       </c>
       <c r="D128" t="n">
-        <v>53.8</v>
+        <v>54.7</v>
       </c>
       <c r="E128" t="n">
-        <v>53.4</v>
+        <v>54.5</v>
       </c>
       <c r="F128" t="n">
-        <v>4800</v>
+        <v>3520</v>
       </c>
       <c r="G128" t="n">
-        <v>54.29999999999999</v>
+        <v>53.55</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="C129" t="n">
         <v>53.4</v>
       </c>
       <c r="D129" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="E129" t="n">
         <v>53.4</v>
       </c>
       <c r="F129" t="n">
-        <v>43</v>
+        <v>4800</v>
       </c>
       <c r="G129" t="n">
-        <v>54.07999999999998</v>
+        <v>53.57166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>53.4</v>
       </c>
       <c r="F130" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G130" t="n">
-        <v>53.87999999999998</v>
+        <v>53.59333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="C131" t="n">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="D131" t="n">
-        <v>53.8</v>
+        <v>53.4</v>
       </c>
       <c r="E131" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="F131" t="n">
-        <v>3638.656</v>
+        <v>16</v>
       </c>
       <c r="G131" t="n">
-        <v>53.73999999999999</v>
+        <v>53.61500000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="C132" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="D132" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="E132" t="n">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="F132" t="n">
-        <v>3695.3051</v>
+        <v>3638.656</v>
       </c>
       <c r="G132" t="n">
-        <v>53.47999999999998</v>
+        <v>53.64333333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5021,19 +5021,19 @@
         <v>53.4</v>
       </c>
       <c r="C133" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="D133" t="n">
         <v>53.4</v>
       </c>
       <c r="E133" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="F133" t="n">
-        <v>800</v>
+        <v>3695.3051</v>
       </c>
       <c r="G133" t="n">
-        <v>53.43999999999998</v>
+        <v>53.66500000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="C134" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="D134" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="E134" t="n">
-        <v>53</v>
+        <v>53.2</v>
       </c>
       <c r="F134" t="n">
-        <v>2482</v>
+        <v>800</v>
       </c>
       <c r="G134" t="n">
-        <v>53.35999999999999</v>
+        <v>53.68333333333335</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>53.7</v>
+        <v>53</v>
       </c>
       <c r="C135" t="n">
-        <v>53.7</v>
+        <v>53</v>
       </c>
       <c r="D135" t="n">
-        <v>53.7</v>
+        <v>53</v>
       </c>
       <c r="E135" t="n">
-        <v>53.7</v>
+        <v>53</v>
       </c>
       <c r="F135" t="n">
-        <v>1618.886</v>
+        <v>2482</v>
       </c>
       <c r="G135" t="n">
-        <v>53.41999999999999</v>
+        <v>53.69666666666669</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
       <c r="C136" t="n">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
       <c r="D136" t="n">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
       <c r="E136" t="n">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
       <c r="F136" t="n">
-        <v>3004.2239</v>
+        <v>1618.886</v>
       </c>
       <c r="G136" t="n">
-        <v>53.23999999999999</v>
+        <v>53.71333333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C137" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D137" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E137" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F137" t="n">
-        <v>6078.3591</v>
+        <v>3004.2239</v>
       </c>
       <c r="G137" t="n">
-        <v>53.11999999999999</v>
+        <v>53.71666666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5196,19 @@
         <v>52.8</v>
       </c>
       <c r="C138" t="n">
-        <v>52.2</v>
+        <v>52.8</v>
       </c>
       <c r="D138" t="n">
         <v>52.8</v>
       </c>
       <c r="E138" t="n">
-        <v>52.2</v>
+        <v>52.8</v>
       </c>
       <c r="F138" t="n">
-        <v>40749.5333</v>
+        <v>6078.3591</v>
       </c>
       <c r="G138" t="n">
-        <v>52.91999999999999</v>
+        <v>53.71833333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>52.3</v>
+        <v>52.8</v>
       </c>
       <c r="C139" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="D139" t="n">
-        <v>52.3</v>
+        <v>52.8</v>
       </c>
       <c r="E139" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F139" t="n">
-        <v>8737.1104</v>
+        <v>40749.5333</v>
       </c>
       <c r="G139" t="n">
-        <v>52.77999999999999</v>
+        <v>53.70833333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C140" t="n">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="D140" t="n">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="E140" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="F140" t="n">
-        <v>28221.9999</v>
+        <v>8737.1104</v>
       </c>
       <c r="G140" t="n">
-        <v>52.6</v>
+        <v>53.70000000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
         <v>52.4</v>
       </c>
       <c r="C141" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="D141" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="E141" t="n">
         <v>52.4</v>
       </c>
       <c r="F141" t="n">
-        <v>800</v>
+        <v>28221.9999</v>
       </c>
       <c r="G141" t="n">
-        <v>52.5</v>
+        <v>53.69833333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5342,13 +5342,13 @@
         <v>52.4</v>
       </c>
       <c r="E142" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="F142" t="n">
-        <v>23621.3207</v>
+        <v>800</v>
       </c>
       <c r="G142" t="n">
-        <v>52.41999999999999</v>
+        <v>53.68833333333336</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C143" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="D143" t="n">
-        <v>53.2</v>
+        <v>52.4</v>
       </c>
       <c r="E143" t="n">
-        <v>52.5</v>
+        <v>52.3</v>
       </c>
       <c r="F143" t="n">
-        <v>1419.5</v>
+        <v>23621.3207</v>
       </c>
       <c r="G143" t="n">
-        <v>52.61999999999999</v>
+        <v>53.67833333333336</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="C144" t="n">
-        <v>52.4</v>
+        <v>53.2</v>
       </c>
       <c r="D144" t="n">
-        <v>52.4</v>
+        <v>53.2</v>
       </c>
       <c r="E144" t="n">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>1419.5</v>
       </c>
       <c r="G144" t="n">
-        <v>52.63999999999999</v>
+        <v>53.68000000000003</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>52.4</v>
       </c>
       <c r="F145" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
-        <v>52.55999999999998</v>
+        <v>53.6616666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>53.1</v>
+        <v>52.4</v>
       </c>
       <c r="C146" t="n">
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="D146" t="n">
-        <v>53.3</v>
+        <v>52.4</v>
       </c>
       <c r="E146" t="n">
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="F146" t="n">
-        <v>2710.8162</v>
+        <v>23</v>
       </c>
       <c r="G146" t="n">
-        <v>52.67999999999999</v>
+        <v>53.64333333333336</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>52.5</v>
+        <v>53.1</v>
       </c>
       <c r="C147" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D147" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="E147" t="n">
-        <v>52.1</v>
+        <v>53</v>
       </c>
       <c r="F147" t="n">
-        <v>52821.7535</v>
+        <v>2710.8162</v>
       </c>
       <c r="G147" t="n">
-        <v>52.77999999999999</v>
+        <v>53.6316666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="C148" t="n">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="D148" t="n">
-        <v>52.6</v>
+        <v>52.9</v>
       </c>
       <c r="E148" t="n">
-        <v>52.6</v>
+        <v>52.1</v>
       </c>
       <c r="F148" t="n">
-        <v>2103</v>
+        <v>52821.7535</v>
       </c>
       <c r="G148" t="n">
-        <v>52.65999999999999</v>
+        <v>53.63333333333336</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C149" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="D149" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E149" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>2103</v>
       </c>
       <c r="G149" t="n">
-        <v>52.67999999999999</v>
+        <v>53.62833333333336</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="C150" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="D150" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="E150" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="F150" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="G150" t="n">
-        <v>52.66</v>
+        <v>53.62166666666669</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>52.3</v>
       </c>
       <c r="F151" t="n">
-        <v>2103</v>
+        <v>23</v>
       </c>
       <c r="G151" t="n">
-        <v>52.52</v>
+        <v>53.61500000000003</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>52.3</v>
       </c>
       <c r="F152" t="n">
-        <v>2696</v>
+        <v>2103</v>
       </c>
       <c r="G152" t="n">
-        <v>52.40000000000001</v>
+        <v>53.6066666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>52.3</v>
       </c>
       <c r="F153" t="n">
-        <v>1000</v>
+        <v>2696</v>
       </c>
       <c r="G153" t="n">
-        <v>52.34000000000001</v>
+        <v>53.57833333333337</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5756,19 +5756,19 @@
         <v>52.3</v>
       </c>
       <c r="C154" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="D154" t="n">
         <v>52.3</v>
       </c>
       <c r="E154" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="F154" t="n">
-        <v>77483.2749</v>
+        <v>1000</v>
       </c>
       <c r="G154" t="n">
-        <v>52.24000000000001</v>
+        <v>53.5516666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="C155" t="n">
         <v>52</v>
       </c>
       <c r="D155" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="E155" t="n">
         <v>52</v>
       </c>
       <c r="F155" t="n">
-        <v>2899.3604</v>
+        <v>77483.2749</v>
       </c>
       <c r="G155" t="n">
-        <v>52.18000000000001</v>
+        <v>53.51833333333337</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C156" t="n">
         <v>52</v>
       </c>
       <c r="D156" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E156" t="n">
         <v>52</v>
       </c>
       <c r="F156" t="n">
-        <v>13347.2962</v>
+        <v>2899.3604</v>
       </c>
       <c r="G156" t="n">
-        <v>52.12</v>
+        <v>53.47500000000004</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +5861,19 @@
         <v>52.1</v>
       </c>
       <c r="C157" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D157" t="n">
         <v>52.1</v>
       </c>
       <c r="E157" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F157" t="n">
-        <v>1752.4966</v>
+        <v>13347.2962</v>
       </c>
       <c r="G157" t="n">
-        <v>52.08000000000001</v>
+        <v>53.43833333333338</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C158" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D158" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E158" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F158" t="n">
-        <v>215</v>
+        <v>1752.4966</v>
       </c>
       <c r="G158" t="n">
-        <v>52.06</v>
+        <v>53.39666666666671</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,19 +5931,19 @@
         <v>52.2</v>
       </c>
       <c r="C159" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="D159" t="n">
         <v>52.2</v>
       </c>
       <c r="E159" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="F159" t="n">
-        <v>4400</v>
+        <v>215</v>
       </c>
       <c r="G159" t="n">
-        <v>52.08000000000001</v>
+        <v>53.3666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="C160" t="n">
         <v>52.1</v>
       </c>
       <c r="D160" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="E160" t="n">
         <v>52.1</v>
       </c>
       <c r="F160" t="n">
-        <v>2463</v>
+        <v>4400</v>
       </c>
       <c r="G160" t="n">
-        <v>52.10000000000001</v>
+        <v>53.33833333333337</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6001,19 @@
         <v>52.1</v>
       </c>
       <c r="C161" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D161" t="n">
         <v>52.1</v>
       </c>
       <c r="E161" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F161" t="n">
-        <v>7573</v>
+        <v>2463</v>
       </c>
       <c r="G161" t="n">
-        <v>52.10000000000001</v>
+        <v>53.31500000000003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C162" t="n">
         <v>52</v>
       </c>
       <c r="D162" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E162" t="n">
         <v>52</v>
       </c>
       <c r="F162" t="n">
-        <v>3395.8946</v>
+        <v>7573</v>
       </c>
       <c r="G162" t="n">
-        <v>52.08000000000001</v>
+        <v>53.29000000000003</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C163" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D163" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E163" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="F163" t="n">
-        <v>5976.1032</v>
+        <v>3395.8946</v>
       </c>
       <c r="G163" t="n">
-        <v>52.02</v>
+        <v>53.2616666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>51.9</v>
       </c>
       <c r="F164" t="n">
-        <v>4752.9999</v>
+        <v>5976.1032</v>
       </c>
       <c r="G164" t="n">
-        <v>51.98</v>
+        <v>53.2316666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>52.1</v>
+        <v>51.9</v>
       </c>
       <c r="C165" t="n">
-        <v>52.8</v>
+        <v>51.9</v>
       </c>
       <c r="D165" t="n">
-        <v>52.8</v>
+        <v>51.9</v>
       </c>
       <c r="E165" t="n">
-        <v>52.1</v>
+        <v>51.9</v>
       </c>
       <c r="F165" t="n">
-        <v>2600</v>
+        <v>4752.9999</v>
       </c>
       <c r="G165" t="n">
-        <v>52.11999999999999</v>
+        <v>53.20666666666671</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="C166" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="D166" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="E166" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="F166" t="n">
-        <v>1941.528</v>
+        <v>2600</v>
       </c>
       <c r="G166" t="n">
-        <v>52.19999999999999</v>
+        <v>53.19000000000004</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
       <c r="C167" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="D167" t="n">
-        <v>52.8</v>
+        <v>52.4</v>
       </c>
       <c r="E167" t="n">
-        <v>52.6</v>
+        <v>52.4</v>
       </c>
       <c r="F167" t="n">
-        <v>5899.9228</v>
+        <v>1941.528</v>
       </c>
       <c r="G167" t="n">
-        <v>52.35999999999999</v>
+        <v>53.16666666666671</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="C168" t="n">
         <v>52.8</v>
@@ -6252,13 +6252,13 @@
         <v>52.8</v>
       </c>
       <c r="E168" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="F168" t="n">
-        <v>1853.5568</v>
+        <v>5899.9228</v>
       </c>
       <c r="G168" t="n">
-        <v>52.54</v>
+        <v>53.15000000000004</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="C169" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="D169" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="E169" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="F169" t="n">
-        <v>90</v>
+        <v>1853.5568</v>
       </c>
       <c r="G169" t="n">
-        <v>52.64</v>
+        <v>53.1316666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>52.9</v>
+        <v>52.4</v>
       </c>
       <c r="C170" t="n">
-        <v>52.9</v>
+        <v>52.4</v>
       </c>
       <c r="D170" t="n">
-        <v>52.9</v>
+        <v>52.4</v>
       </c>
       <c r="E170" t="n">
-        <v>52.9</v>
+        <v>52.4</v>
       </c>
       <c r="F170" t="n">
-        <v>688.6701</v>
+        <v>90</v>
       </c>
       <c r="G170" t="n">
-        <v>52.65999999999999</v>
+        <v>53.09500000000004</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="C171" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="D171" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="E171" t="n">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="F171" t="n">
-        <v>5153.3996</v>
+        <v>688.6701</v>
       </c>
       <c r="G171" t="n">
-        <v>52.77999999999999</v>
+        <v>53.08500000000004</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,10 +6395,10 @@
         <v>53</v>
       </c>
       <c r="F172" t="n">
-        <v>1498.283</v>
+        <v>5153.3996</v>
       </c>
       <c r="G172" t="n">
-        <v>52.81999999999999</v>
+        <v>53.07666666666671</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,10 +6430,10 @@
         <v>53</v>
       </c>
       <c r="F173" t="n">
-        <v>68.1698</v>
+        <v>1498.283</v>
       </c>
       <c r="G173" t="n">
-        <v>52.85999999999999</v>
+        <v>53.05166666666671</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>53</v>
       </c>
       <c r="F174" t="n">
-        <v>102.503</v>
+        <v>68.1698</v>
       </c>
       <c r="G174" t="n">
-        <v>52.98</v>
+        <v>53.02666666666671</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6491,19 +6491,19 @@
         <v>53</v>
       </c>
       <c r="C175" t="n">
-        <v>52.4</v>
+        <v>53</v>
       </c>
       <c r="D175" t="n">
         <v>53</v>
       </c>
       <c r="E175" t="n">
-        <v>52.4</v>
+        <v>53</v>
       </c>
       <c r="F175" t="n">
-        <v>3959.9314</v>
+        <v>102.503</v>
       </c>
       <c r="G175" t="n">
-        <v>52.88</v>
+        <v>53.00166666666671</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C176" t="n">
-        <v>53.1</v>
+        <v>52.4</v>
       </c>
       <c r="D176" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E176" t="n">
-        <v>53.1</v>
+        <v>52.4</v>
       </c>
       <c r="F176" t="n">
-        <v>3907.7966</v>
+        <v>3959.9314</v>
       </c>
       <c r="G176" t="n">
-        <v>52.9</v>
+        <v>52.96666666666671</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="C177" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="D177" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="E177" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="F177" t="n">
-        <v>1261.7163</v>
+        <v>3907.7966</v>
       </c>
       <c r="G177" t="n">
-        <v>52.86</v>
+        <v>52.94166666666671</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>52.8</v>
       </c>
       <c r="F178" t="n">
-        <v>5543</v>
+        <v>1261.7163</v>
       </c>
       <c r="G178" t="n">
-        <v>52.82000000000001</v>
+        <v>52.91166666666672</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="C179" t="n">
         <v>52.8</v>
       </c>
       <c r="D179" t="n">
-        <v>52.9</v>
+        <v>52.8</v>
       </c>
       <c r="E179" t="n">
         <v>52.8</v>
       </c>
       <c r="F179" t="n">
-        <v>14373.4937</v>
+        <v>5543</v>
       </c>
       <c r="G179" t="n">
-        <v>52.78000000000001</v>
+        <v>52.88166666666672</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C180" t="n">
         <v>52.8</v>
       </c>
       <c r="D180" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E180" t="n">
         <v>52.8</v>
       </c>
       <c r="F180" t="n">
-        <v>827</v>
+        <v>14373.4937</v>
       </c>
       <c r="G180" t="n">
-        <v>52.86000000000001</v>
+        <v>52.85166666666672</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>52.8</v>
       </c>
       <c r="F181" t="n">
-        <v>1778.2386</v>
+        <v>827</v>
       </c>
       <c r="G181" t="n">
-        <v>52.80000000000001</v>
+        <v>52.82000000000006</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>52.8</v>
       </c>
       <c r="F182" t="n">
-        <v>939.9999</v>
+        <v>1778.2386</v>
       </c>
       <c r="G182" t="n">
-        <v>52.80000000000001</v>
+        <v>52.80000000000007</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>52.8</v>
       </c>
       <c r="F183" t="n">
-        <v>2935.6425</v>
+        <v>939.9999</v>
       </c>
       <c r="G183" t="n">
-        <v>52.80000000000001</v>
+        <v>52.79166666666674</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>52.8</v>
       </c>
       <c r="F184" t="n">
-        <v>4132</v>
+        <v>2935.6425</v>
       </c>
       <c r="G184" t="n">
-        <v>52.80000000000001</v>
+        <v>52.78166666666674</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="C185" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="D185" t="n">
-        <v>53.2</v>
+        <v>52.8</v>
       </c>
       <c r="E185" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="F185" t="n">
-        <v>18892.1334</v>
+        <v>4132</v>
       </c>
       <c r="G185" t="n">
-        <v>52.88000000000001</v>
+        <v>52.75333333333341</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="C186" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D186" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E186" t="n">
-        <v>53.3</v>
+        <v>53</v>
       </c>
       <c r="F186" t="n">
-        <v>195.2532</v>
+        <v>18892.1334</v>
       </c>
       <c r="G186" t="n">
-        <v>52.98</v>
+        <v>52.7333333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="C187" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="D187" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="E187" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="F187" t="n">
-        <v>1031</v>
+        <v>195.2532</v>
       </c>
       <c r="G187" t="n">
-        <v>53</v>
+        <v>52.7133333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         <v>52.9</v>
       </c>
       <c r="F188" t="n">
-        <v>10</v>
+        <v>1031</v>
       </c>
       <c r="G188" t="n">
-        <v>53.02</v>
+        <v>52.68333333333341</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>52.9</v>
       </c>
       <c r="F189" t="n">
-        <v>904.9403</v>
+        <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>53.03999999999998</v>
+        <v>52.67500000000008</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,10 +7025,10 @@
         <v>52.9</v>
       </c>
       <c r="F190" t="n">
-        <v>4714.1243</v>
+        <v>904.9403</v>
       </c>
       <c r="G190" t="n">
-        <v>52.97999999999998</v>
+        <v>52.66666666666674</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C191" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="D191" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E191" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="F191" t="n">
-        <v>10174.5479</v>
+        <v>4714.1243</v>
       </c>
       <c r="G191" t="n">
-        <v>52.87999999999998</v>
+        <v>52.65833333333341</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="C192" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="D192" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="E192" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="F192" t="n">
-        <v>546.1969</v>
+        <v>10174.5479</v>
       </c>
       <c r="G192" t="n">
-        <v>52.81999999999999</v>
+        <v>52.64166666666674</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7121,19 +7121,19 @@
         <v>52.6</v>
       </c>
       <c r="C193" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="D193" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="E193" t="n">
         <v>52.6</v>
       </c>
       <c r="F193" t="n">
-        <v>2024.3219</v>
+        <v>546.1969</v>
       </c>
       <c r="G193" t="n">
-        <v>52.77999999999999</v>
+        <v>52.62833333333341</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7156,19 +7156,19 @@
         <v>52.6</v>
       </c>
       <c r="C194" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="D194" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="E194" t="n">
         <v>52.6</v>
       </c>
       <c r="F194" t="n">
-        <v>1903</v>
+        <v>2024.3219</v>
       </c>
       <c r="G194" t="n">
-        <v>52.72000000000001</v>
+        <v>52.62000000000008</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C195" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="D195" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="E195" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="F195" t="n">
-        <v>1913.457</v>
+        <v>1903</v>
       </c>
       <c r="G195" t="n">
-        <v>52.68000000000001</v>
+        <v>52.61333333333341</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="C196" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="D196" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="E196" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="F196" t="n">
-        <v>9839.624400000001</v>
+        <v>1913.457</v>
       </c>
       <c r="G196" t="n">
-        <v>52.64000000000001</v>
+        <v>52.59666666666674</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7261,19 @@
         <v>52.6</v>
       </c>
       <c r="C197" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="D197" t="n">
         <v>52.6</v>
       </c>
       <c r="E197" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
       <c r="F197" t="n">
-        <v>19087.3866</v>
+        <v>9839.624400000001</v>
       </c>
       <c r="G197" t="n">
-        <v>52.58000000000001</v>
+        <v>52.59166666666673</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C198" t="n">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="D198" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="E198" t="n">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="F198" t="n">
-        <v>2638.5555</v>
+        <v>19087.3866</v>
       </c>
       <c r="G198" t="n">
-        <v>52.58000000000001</v>
+        <v>52.5833333333334</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="C199" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="D199" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="E199" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="F199" t="n">
-        <v>1194.9647</v>
+        <v>2638.5555</v>
       </c>
       <c r="G199" t="n">
-        <v>52.54</v>
+        <v>52.59166666666673</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>52.4</v>
       </c>
       <c r="F200" t="n">
-        <v>30</v>
+        <v>1194.9647</v>
       </c>
       <c r="G200" t="n">
-        <v>52.48</v>
+        <v>52.5933333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>52.4</v>
       </c>
       <c r="F201" t="n">
-        <v>816.9999</v>
+        <v>30</v>
       </c>
       <c r="G201" t="n">
-        <v>52.43999999999998</v>
+        <v>52.58666666666673</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="C202" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D202" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="E202" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="F202" t="n">
-        <v>636.7713</v>
+        <v>816.9999</v>
       </c>
       <c r="G202" t="n">
-        <v>52.43999999999998</v>
+        <v>52.58666666666673</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C203" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="D203" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="E203" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="F203" t="n">
-        <v>483.7035</v>
+        <v>636.7713</v>
       </c>
       <c r="G203" t="n">
-        <v>52.37999999999998</v>
+        <v>52.58500000000006</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>52.4</v>
       </c>
       <c r="F204" t="n">
-        <v>1337.5555</v>
+        <v>483.7035</v>
       </c>
       <c r="G204" t="n">
-        <v>52.37999999999998</v>
+        <v>52.57166666666674</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="C205" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="D205" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="E205" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="F205" t="n">
-        <v>22842.4235</v>
+        <v>1337.5555</v>
       </c>
       <c r="G205" t="n">
-        <v>52.35999999999999</v>
+        <v>52.57166666666674</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7585,10 +7585,10 @@
         <v>52.3</v>
       </c>
       <c r="F206" t="n">
-        <v>5216.6586</v>
+        <v>22842.4235</v>
       </c>
       <c r="G206" t="n">
-        <v>52.34</v>
+        <v>52.57000000000007</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7620,10 +7620,10 @@
         <v>52.3</v>
       </c>
       <c r="F207" t="n">
-        <v>3912.4952</v>
+        <v>5216.6586</v>
       </c>
       <c r="G207" t="n">
-        <v>52.34</v>
+        <v>52.55833333333341</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="C208" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="D208" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="E208" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="F208" t="n">
-        <v>3636</v>
+        <v>3912.4952</v>
       </c>
       <c r="G208" t="n">
-        <v>52.3</v>
+        <v>52.54833333333341</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7690,10 +7690,10 @@
         <v>52.2</v>
       </c>
       <c r="F209" t="n">
-        <v>16814.0182</v>
+        <v>3636</v>
       </c>
       <c r="G209" t="n">
-        <v>52.26000000000001</v>
+        <v>52.54166666666674</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>52.2</v>
       </c>
       <c r="F210" t="n">
-        <v>137.8028</v>
+        <v>16814.0182</v>
       </c>
       <c r="G210" t="n">
-        <v>52.23999999999999</v>
+        <v>52.53666666666674</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7760,10 +7760,10 @@
         <v>52.2</v>
       </c>
       <c r="F211" t="n">
-        <v>195.4261</v>
+        <v>137.8028</v>
       </c>
       <c r="G211" t="n">
-        <v>52.21999999999999</v>
+        <v>52.53500000000007</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C212" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="D212" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="E212" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F212" t="n">
-        <v>526.0803</v>
+        <v>195.4261</v>
       </c>
       <c r="G212" t="n">
-        <v>52.21999999999999</v>
+        <v>52.5333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="C213" t="n">
-        <v>51.7</v>
+        <v>52.3</v>
       </c>
       <c r="D213" t="n">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="E213" t="n">
-        <v>51.7</v>
+        <v>52.3</v>
       </c>
       <c r="F213" t="n">
-        <v>6876.3494</v>
+        <v>526.0803</v>
       </c>
       <c r="G213" t="n">
-        <v>52.11999999999999</v>
+        <v>52.5333333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="C214" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="D214" t="n">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="E214" t="n">
-        <v>51.5</v>
+        <v>51.7</v>
       </c>
       <c r="F214" t="n">
-        <v>518.8871</v>
+        <v>6876.3494</v>
       </c>
       <c r="G214" t="n">
-        <v>51.98</v>
+        <v>52.52333333333339</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7900,10 +7900,10 @@
         <v>51.5</v>
       </c>
       <c r="F215" t="n">
-        <v>24</v>
+        <v>518.8871</v>
       </c>
       <c r="G215" t="n">
-        <v>51.84</v>
+        <v>52.51500000000006</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>52.1</v>
+        <v>51.5</v>
       </c>
       <c r="C216" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="D216" t="n">
-        <v>52.1</v>
+        <v>51.5</v>
       </c>
       <c r="E216" t="n">
-        <v>51.6</v>
+        <v>51.5</v>
       </c>
       <c r="F216" t="n">
-        <v>1384.0115</v>
+        <v>24</v>
       </c>
       <c r="G216" t="n">
-        <v>51.72000000000001</v>
+        <v>52.50666666666672</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>51.5</v>
+        <v>52.1</v>
       </c>
       <c r="C217" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="D217" t="n">
-        <v>51.5</v>
+        <v>52.1</v>
       </c>
       <c r="E217" t="n">
-        <v>51.5</v>
+        <v>51.6</v>
       </c>
       <c r="F217" t="n">
-        <v>7005.5676</v>
+        <v>1384.0115</v>
       </c>
       <c r="G217" t="n">
-        <v>51.56</v>
+        <v>52.50000000000005</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7996,19 +7996,19 @@
         <v>51.5</v>
       </c>
       <c r="C218" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="D218" t="n">
         <v>51.5</v>
       </c>
       <c r="E218" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="F218" t="n">
-        <v>16930.4622</v>
+        <v>7005.5676</v>
       </c>
       <c r="G218" t="n">
-        <v>51.46</v>
+        <v>52.49000000000005</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C219" t="n">
         <v>51.2</v>
       </c>
-      <c r="C219" t="n">
-        <v>51</v>
-      </c>
       <c r="D219" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="E219" t="n">
         <v>51.2</v>
       </c>
-      <c r="E219" t="n">
-        <v>51</v>
-      </c>
       <c r="F219" t="n">
-        <v>32527.7042</v>
+        <v>16930.4622</v>
       </c>
       <c r="G219" t="n">
-        <v>51.36</v>
+        <v>52.47333333333339</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C220" t="n">
         <v>51</v>
       </c>
-      <c r="C220" t="n">
-        <v>50.9</v>
-      </c>
       <c r="D220" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E220" t="n">
         <v>51</v>
       </c>
-      <c r="E220" t="n">
-        <v>50.9</v>
-      </c>
       <c r="F220" t="n">
-        <v>1600</v>
+        <v>32527.7042</v>
       </c>
       <c r="G220" t="n">
-        <v>51.23999999999999</v>
+        <v>52.45500000000006</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="C221" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="D221" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="E221" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="F221" t="n">
-        <v>10487.5836</v>
+        <v>1600</v>
       </c>
       <c r="G221" t="n">
-        <v>51.02</v>
+        <v>52.43500000000006</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="C222" t="n">
         <v>50.5</v>
       </c>
       <c r="D222" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="E222" t="n">
         <v>50.5</v>
       </c>
       <c r="F222" t="n">
-        <v>27127.9283</v>
+        <v>10487.5836</v>
       </c>
       <c r="G222" t="n">
-        <v>50.82000000000001</v>
+        <v>52.41000000000006</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="C223" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="D223" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="E223" t="n">
-        <v>50.6</v>
+        <v>50.5</v>
       </c>
       <c r="F223" t="n">
-        <v>880.6235</v>
+        <v>27127.9283</v>
       </c>
       <c r="G223" t="n">
-        <v>50.70000000000001</v>
+        <v>52.38500000000006</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="C224" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="D224" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="E224" t="n">
-        <v>50.8</v>
+        <v>50.6</v>
       </c>
       <c r="F224" t="n">
-        <v>5065.9651</v>
+        <v>880.6235</v>
       </c>
       <c r="G224" t="n">
-        <v>50.66000000000001</v>
+        <v>52.36333333333339</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="C225" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="D225" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="E225" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="F225" t="n">
-        <v>8631.3277</v>
+        <v>5065.9651</v>
       </c>
       <c r="G225" t="n">
-        <v>50.60000000000002</v>
+        <v>52.34500000000006</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="C226" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="D226" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="E226" t="n">
-        <v>50.5</v>
+        <v>50.6</v>
       </c>
       <c r="F226" t="n">
-        <v>9747.9457</v>
+        <v>8631.3277</v>
       </c>
       <c r="G226" t="n">
-        <v>50.60000000000002</v>
+        <v>52.30833333333339</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C227" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="D227" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="E227" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="F227" t="n">
-        <v>845.1659</v>
+        <v>9747.9457</v>
       </c>
       <c r="G227" t="n">
-        <v>50.56000000000002</v>
+        <v>52.27666666666672</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8355,10 +8355,10 @@
         <v>50.3</v>
       </c>
       <c r="F228" t="n">
-        <v>2560.344</v>
+        <v>845.1659</v>
       </c>
       <c r="G228" t="n">
-        <v>50.50000000000003</v>
+        <v>52.23500000000005</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8390,23 +8390,19 @@
         <v>50.3</v>
       </c>
       <c r="F229" t="n">
-        <v>1335.3496</v>
+        <v>2560.344</v>
       </c>
       <c r="G229" t="n">
-        <v>50.40000000000002</v>
+        <v>52.19333333333338</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K229" t="n">
-        <v>50.3</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
@@ -8429,110 +8425,102 @@
         <v>50.3</v>
       </c>
       <c r="F230" t="n">
+        <v>1335.3496</v>
+      </c>
+      <c r="G230" t="n">
+        <v>52.15833333333339</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C231" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D231" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E231" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F231" t="n">
         <v>1240.2229</v>
       </c>
-      <c r="G230" t="n">
-        <v>50.34000000000002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="n">
+      <c r="G231" t="n">
+        <v>52.11500000000005</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
         <v>50.3</v>
       </c>
-      <c r="K230" t="n">
+      <c r="K231" t="n">
         <v>50.3</v>
       </c>
-      <c r="L230" t="inlineStr">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F232" t="n">
+        <v>721.6661</v>
+      </c>
+      <c r="G232" t="n">
+        <v>52.07000000000006</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C231" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D231" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E231" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F231" t="n">
-        <v>721.6661</v>
-      </c>
-      <c r="G231" t="n">
-        <v>50.30000000000003</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K231" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C232" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D232" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E232" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F232" t="n">
-        <v>2197.061</v>
-      </c>
-      <c r="G232" t="n">
-        <v>50.28000000000002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K232" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8554,10 +8542,10 @@
         <v>50.2</v>
       </c>
       <c r="F233" t="n">
-        <v>2076.0478</v>
+        <v>2197.061</v>
       </c>
       <c r="G233" t="n">
-        <v>50.26000000000001</v>
+        <v>52.02333333333339</v>
       </c>
       <c r="H233" t="n">
         <v>1</v>
@@ -8566,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>50.2</v>
+        <v>50.3</v>
       </c>
       <c r="K233" t="n">
         <v>50.3</v>
@@ -8597,10 +8585,10 @@
         <v>50.2</v>
       </c>
       <c r="F234" t="n">
-        <v>5726.8912</v>
+        <v>2076.0478</v>
       </c>
       <c r="G234" t="n">
-        <v>50.24000000000001</v>
+        <v>51.97666666666672</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -8612,14 +8600,51 @@
         <v>50.2</v>
       </c>
       <c r="K234" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="L234" t="inlineStr">
+        <v>50.2</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>5726.8912</v>
+      </c>
+      <c r="G235" t="n">
+        <v>51.93000000000005</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
+      <c r="M235" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>16411</v>
       </c>
       <c r="G2" t="n">
+        <v>51.76000000000002</v>
+      </c>
+      <c r="H2" t="n">
         <v>51.69666666666662</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>25640</v>
       </c>
       <c r="G3" t="n">
+        <v>51.76000000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>51.69166666666662</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1873.8588</v>
       </c>
       <c r="G4" t="n">
+        <v>51.75333333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>51.71166666666662</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>7071.9335</v>
       </c>
       <c r="G5" t="n">
+        <v>51.74666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>51.71999999999995</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1512.8911</v>
       </c>
       <c r="G6" t="n">
+        <v>51.74000000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>51.72833333333328</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>31449.0368</v>
       </c>
       <c r="G7" t="n">
+        <v>51.73333333333335</v>
+      </c>
+      <c r="H7" t="n">
         <v>51.72833333333328</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>32886.0739</v>
       </c>
       <c r="G8" t="n">
+        <v>51.72666666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>51.72499999999994</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4907.8607</v>
       </c>
       <c r="G9" t="n">
+        <v>51.74666666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>51.72833333333327</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
+        <v>51.75333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>51.72833333333327</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>4306.9223</v>
       </c>
       <c r="G11" t="n">
+        <v>51.77333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>51.73166666666661</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2400</v>
       </c>
       <c r="G12" t="n">
+        <v>51.84</v>
+      </c>
+      <c r="H12" t="n">
         <v>51.7466666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1000.9999</v>
       </c>
       <c r="G13" t="n">
+        <v>51.86000000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>51.75166666666659</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>3735</v>
       </c>
       <c r="G14" t="n">
+        <v>51.86000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>51.75499999999992</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>14558</v>
       </c>
       <c r="G15" t="n">
+        <v>51.86000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>51.75833333333325</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>870.9999</v>
       </c>
       <c r="G16" t="n">
+        <v>51.86666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>51.75999999999992</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1771.0759</v>
       </c>
       <c r="G17" t="n">
+        <v>51.87333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>51.76166666666659</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10924.0431</v>
       </c>
       <c r="G18" t="n">
+        <v>51.88666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>51.76333333333325</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>5249.5062</v>
       </c>
       <c r="G19" t="n">
+        <v>51.90666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>51.76499999999992</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>753.8116</v>
       </c>
       <c r="G20" t="n">
+        <v>51.92666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>51.76666666666658</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>961</v>
       </c>
       <c r="G21" t="n">
+        <v>51.91999999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>51.76499999999992</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1952.4947</v>
       </c>
       <c r="G22" t="n">
+        <v>51.90666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>51.76166666666659</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>965.3708</v>
       </c>
       <c r="G23" t="n">
+        <v>51.88666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>51.75499999999992</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>8600</v>
       </c>
       <c r="G24" t="n">
+        <v>51.84666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>51.74999999999993</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>19225</v>
       </c>
       <c r="G25" t="n">
+        <v>51.84666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>51.7516666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>772.2007722</v>
       </c>
       <c r="G26" t="n">
+        <v>51.83333333333332</v>
+      </c>
+      <c r="H26" t="n">
         <v>51.75333333333328</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>10483.7395</v>
       </c>
       <c r="G27" t="n">
+        <v>51.83333333333332</v>
+      </c>
+      <c r="H27" t="n">
         <v>51.76999999999995</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>5046.768</v>
       </c>
       <c r="G28" t="n">
+        <v>51.85333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>51.78166666666662</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5574.4</v>
       </c>
       <c r="G29" t="n">
+        <v>51.85333333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>51.78499999999995</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1720.257</v>
       </c>
       <c r="G30" t="n">
+        <v>51.83999999999998</v>
+      </c>
+      <c r="H30" t="n">
         <v>51.78666666666662</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>32304</v>
       </c>
       <c r="G31" t="n">
+        <v>51.86666666666665</v>
+      </c>
+      <c r="H31" t="n">
         <v>51.79666666666662</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>2700</v>
       </c>
       <c r="G32" t="n">
+        <v>51.89333333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>51.80666666666663</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>63.1037</v>
       </c>
       <c r="G33" t="n">
+        <v>51.91999999999997</v>
+      </c>
+      <c r="H33" t="n">
         <v>51.81666666666663</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3874</v>
       </c>
       <c r="G34" t="n">
+        <v>51.97999999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>51.83499999999997</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>6413.4211</v>
       </c>
       <c r="G35" t="n">
+        <v>51.99333333333331</v>
+      </c>
+      <c r="H35" t="n">
         <v>51.84166666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2664</v>
       </c>
       <c r="G36" t="n">
+        <v>52.05999999999997</v>
+      </c>
+      <c r="H36" t="n">
         <v>51.85499999999998</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1190</v>
       </c>
       <c r="G37" t="n">
+        <v>52.12666666666664</v>
+      </c>
+      <c r="H37" t="n">
         <v>51.86666666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>5668.8139</v>
       </c>
       <c r="G38" t="n">
+        <v>52.19999999999997</v>
+      </c>
+      <c r="H38" t="n">
         <v>51.87833333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>2112</v>
       </c>
       <c r="G39" t="n">
+        <v>52.25999999999998</v>
+      </c>
+      <c r="H39" t="n">
         <v>51.88833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>5315.5258</v>
       </c>
       <c r="G40" t="n">
+        <v>52.29333333333331</v>
+      </c>
+      <c r="H40" t="n">
         <v>51.89833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>79</v>
       </c>
       <c r="G41" t="n">
+        <v>52.32666666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>51.90833333333334</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>0.8479</v>
       </c>
       <c r="G42" t="n">
+        <v>52.29999999999997</v>
+      </c>
+      <c r="H42" t="n">
         <v>51.91833333333334</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>22187.8833</v>
       </c>
       <c r="G43" t="n">
+        <v>52.2933333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>51.92833333333336</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>9547.0106</v>
       </c>
       <c r="G44" t="n">
+        <v>52.31999999999996</v>
+      </c>
+      <c r="H44" t="n">
         <v>51.94000000000003</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>20953.7384</v>
       </c>
       <c r="G45" t="n">
+        <v>52.3533333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>51.95000000000003</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>93.0562</v>
       </c>
       <c r="G46" t="n">
+        <v>52.3533333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>51.96000000000004</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>207.1235</v>
       </c>
       <c r="G47" t="n">
+        <v>52.3533333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>51.97000000000004</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>4059.1033</v>
       </c>
       <c r="G48" t="n">
+        <v>52.36666666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>51.98333333333338</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>269.5005</v>
       </c>
       <c r="G49" t="n">
+        <v>52.35333333333331</v>
+      </c>
+      <c r="H49" t="n">
         <v>51.99833333333338</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>10.2742</v>
       </c>
       <c r="G50" t="n">
+        <v>52.36666666666664</v>
+      </c>
+      <c r="H50" t="n">
         <v>52.00833333333339</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5085.0845</v>
       </c>
       <c r="G51" t="n">
+        <v>52.37333333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>52.02333333333339</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>2731</v>
       </c>
       <c r="G52" t="n">
+        <v>52.38666666666664</v>
+      </c>
+      <c r="H52" t="n">
         <v>52.03833333333339</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>935.3076</v>
       </c>
       <c r="G53" t="n">
+        <v>52.39999999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>52.05333333333339</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>651.6794</v>
       </c>
       <c r="G54" t="n">
+        <v>52.41999999999998</v>
+      </c>
+      <c r="H54" t="n">
         <v>52.06833333333339</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1387.355</v>
       </c>
       <c r="G55" t="n">
+        <v>52.43999999999998</v>
+      </c>
+      <c r="H55" t="n">
         <v>52.08333333333339</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>5350.4938</v>
       </c>
       <c r="G56" t="n">
+        <v>52.43999999999998</v>
+      </c>
+      <c r="H56" t="n">
         <v>52.0933333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>33.1106</v>
       </c>
       <c r="G57" t="n">
+        <v>52.41999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>52.0983333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>30800</v>
       </c>
       <c r="G58" t="n">
+        <v>52.43999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>52.11166666666673</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>6734.3368</v>
       </c>
       <c r="G59" t="n">
+        <v>52.41333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>52.11166666666673</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>8401.9084</v>
       </c>
       <c r="G60" t="n">
+        <v>52.42666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>52.12000000000007</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>10000</v>
       </c>
       <c r="G61" t="n">
+        <v>52.44</v>
+      </c>
+      <c r="H61" t="n">
         <v>52.13166666666673</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>29507.05860666</v>
       </c>
       <c r="G62" t="n">
+        <v>52.45333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>52.14333333333339</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>3940.6916</v>
       </c>
       <c r="G63" t="n">
+        <v>52.45333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>52.15666666666673</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>82424.07670000001</v>
       </c>
       <c r="G64" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="H64" t="n">
         <v>52.16500000000006</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>29453.2909</v>
       </c>
       <c r="G65" t="n">
+        <v>52.40666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>52.1733333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>8760.1738</v>
       </c>
       <c r="G66" t="n">
+        <v>52.37333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>52.18166666666673</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>573.9976</v>
       </c>
       <c r="G67" t="n">
+        <v>52.34666666666668</v>
+      </c>
+      <c r="H67" t="n">
         <v>52.19166666666673</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>70676.4906</v>
       </c>
       <c r="G68" t="n">
+        <v>52.35333333333335</v>
+      </c>
+      <c r="H68" t="n">
         <v>52.21000000000006</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>22629.2739</v>
       </c>
       <c r="G69" t="n">
+        <v>52.32000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>52.21166666666672</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>2959.7505</v>
       </c>
       <c r="G70" t="n">
+        <v>52.28666666666668</v>
+      </c>
+      <c r="H70" t="n">
         <v>52.21666666666672</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1618.2137</v>
       </c>
       <c r="G71" t="n">
+        <v>52.27333333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>52.21833333333338</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>20</v>
       </c>
       <c r="G72" t="n">
+        <v>52.28000000000002</v>
+      </c>
+      <c r="H72" t="n">
         <v>52.20833333333339</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>200</v>
       </c>
       <c r="G73" t="n">
+        <v>52.24666666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>52.20833333333339</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>300</v>
       </c>
       <c r="G74" t="n">
+        <v>52.25333333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>52.21000000000005</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>874</v>
       </c>
       <c r="G75" t="n">
+        <v>52.23333333333336</v>
+      </c>
+      <c r="H75" t="n">
         <v>52.21333333333338</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>4042.5186</v>
       </c>
       <c r="G76" t="n">
+        <v>52.24666666666669</v>
+      </c>
+      <c r="H76" t="n">
         <v>52.22666666666671</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1390</v>
       </c>
       <c r="G77" t="n">
+        <v>52.26000000000003</v>
+      </c>
+      <c r="H77" t="n">
         <v>52.24000000000004</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>18740</v>
       </c>
       <c r="G78" t="n">
+        <v>52.27333333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>52.25333333333337</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>3082.0566</v>
       </c>
       <c r="G79" t="n">
+        <v>52.32000000000003</v>
+      </c>
+      <c r="H79" t="n">
         <v>52.26833333333337</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>1772.1088278</v>
       </c>
       <c r="G80" t="n">
+        <v>52.36666666666669</v>
+      </c>
+      <c r="H80" t="n">
         <v>52.28333333333337</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>3018.6843</v>
       </c>
       <c r="G81" t="n">
+        <v>52.42000000000002</v>
+      </c>
+      <c r="H81" t="n">
         <v>52.30666666666671</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>8948.3565</v>
       </c>
       <c r="G82" t="n">
+        <v>52.47333333333335</v>
+      </c>
+      <c r="H82" t="n">
         <v>52.33333333333337</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1250</v>
       </c>
       <c r="G83" t="n">
+        <v>52.49333333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>52.3616666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>25903.3865</v>
       </c>
       <c r="G84" t="n">
+        <v>52.56000000000002</v>
+      </c>
+      <c r="H84" t="n">
         <v>52.39000000000003</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>35677.4808</v>
       </c>
       <c r="G85" t="n">
+        <v>52.65333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>52.41833333333336</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1600</v>
       </c>
       <c r="G86" t="n">
+        <v>52.74666666666668</v>
+      </c>
+      <c r="H86" t="n">
         <v>52.44666666666669</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>2500</v>
       </c>
       <c r="G87" t="n">
+        <v>52.85333333333335</v>
+      </c>
+      <c r="H87" t="n">
         <v>52.46333333333336</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>9844.5954</v>
       </c>
       <c r="G88" t="n">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>52.47000000000003</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>90</v>
       </c>
       <c r="G89" t="n">
+        <v>52.95333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>52.48500000000003</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1836.9868</v>
       </c>
       <c r="G90" t="n">
+        <v>53</v>
+      </c>
+      <c r="H90" t="n">
         <v>52.50333333333336</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>9974.019399999999</v>
       </c>
       <c r="G91" t="n">
+        <v>53</v>
+      </c>
+      <c r="H91" t="n">
         <v>52.51000000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>2531.25</v>
       </c>
       <c r="G92" t="n">
+        <v>53.00666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>52.51833333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>37976.3124</v>
       </c>
       <c r="G93" t="n">
+        <v>53.09333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>52.54666666666669</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>780</v>
       </c>
       <c r="G94" t="n">
+        <v>53.16666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>52.56500000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>59267.458</v>
       </c>
       <c r="G95" t="n">
+        <v>53.24666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>52.59666666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>5404.0775</v>
       </c>
       <c r="G96" t="n">
+        <v>53.36</v>
+      </c>
+      <c r="H96" t="n">
         <v>52.63166666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>1074.4434</v>
       </c>
       <c r="G97" t="n">
+        <v>53.44</v>
+      </c>
+      <c r="H97" t="n">
         <v>52.66166666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>55196.1396</v>
       </c>
       <c r="G98" t="n">
+        <v>53.54666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>52.69833333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>8092.3431</v>
       </c>
       <c r="G99" t="n">
+        <v>53.60666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>52.72666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>3310.2162</v>
       </c>
       <c r="G100" t="n">
+        <v>53.62666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>52.75166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>28886.0271</v>
       </c>
       <c r="G101" t="n">
+        <v>53.62666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>52.77166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>786.1442</v>
       </c>
       <c r="G102" t="n">
+        <v>53.61333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>52.79166666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>357.3929</v>
       </c>
       <c r="G103" t="n">
+        <v>53.67333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>52.81499999999999</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>757.0505000000001</v>
       </c>
       <c r="G104" t="n">
+        <v>53.72666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>52.83666666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>3368</v>
       </c>
       <c r="G105" t="n">
+        <v>53.76000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>52.85499999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>296</v>
       </c>
       <c r="G106" t="n">
+        <v>53.83333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>52.87999999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>1554</v>
       </c>
       <c r="G107" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="H107" t="n">
         <v>52.90499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>3281.7272</v>
       </c>
       <c r="G108" t="n">
+        <v>53.88666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>52.92666666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>4064.3817</v>
       </c>
       <c r="G109" t="n">
+        <v>53.88666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>52.94833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2600</v>
       </c>
       <c r="G110" t="n">
+        <v>53.92666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>52.98666666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>5482.5179</v>
       </c>
       <c r="G111" t="n">
+        <v>53.85333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>53.00166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>17748.5164</v>
       </c>
       <c r="G112" t="n">
+        <v>53.80666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>53.01666666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>752.0203</v>
       </c>
       <c r="G113" t="n">
+        <v>53.79999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>53.04833333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>17356.1175</v>
       </c>
       <c r="G114" t="n">
+        <v>53.83333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>53.08</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>21646.7279</v>
       </c>
       <c r="G115" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="H115" t="n">
         <v>53.11166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>7412.0499</v>
       </c>
       <c r="G116" t="n">
+        <v>53.94666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>53.14833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>17000</v>
       </c>
       <c r="G117" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="H117" t="n">
         <v>53.19166666666666</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>11761.0943</v>
       </c>
       <c r="G118" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="H118" t="n">
         <v>53.22499999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>22570.8195</v>
       </c>
       <c r="G119" t="n">
+        <v>54.13999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>53.26833333333332</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>33405.1332</v>
       </c>
       <c r="G120" t="n">
+        <v>54.22</v>
+      </c>
+      <c r="H120" t="n">
         <v>53.30333333333332</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>589.9792</v>
       </c>
       <c r="G121" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="H121" t="n">
         <v>53.33999999999999</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>68862.2539</v>
       </c>
       <c r="G122" t="n">
+        <v>54.29333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>53.36499999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>22859.3419</v>
       </c>
       <c r="G123" t="n">
+        <v>54.26000000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>53.37833333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>6100</v>
       </c>
       <c r="G124" t="n">
+        <v>54.22666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>53.39999999999999</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>700</v>
       </c>
       <c r="G125" t="n">
+        <v>54.22000000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>53.43999999999999</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>3166.9999</v>
       </c>
       <c r="G126" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="H126" t="n">
         <v>53.47833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>2245.5455</v>
       </c>
       <c r="G127" t="n">
+        <v>54.34666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>53.51666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>3520</v>
       </c>
       <c r="G128" t="n">
+        <v>54.36000000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>53.55</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>4800</v>
       </c>
       <c r="G129" t="n">
+        <v>54.28666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>53.57166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>43</v>
       </c>
       <c r="G130" t="n">
+        <v>54.21333333333334</v>
+      </c>
+      <c r="H130" t="n">
         <v>53.59333333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>16</v>
       </c>
       <c r="G131" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="H131" t="n">
         <v>53.61500000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>3638.656</v>
       </c>
       <c r="G132" t="n">
+        <v>54.08666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>53.64333333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>3695.3051</v>
       </c>
       <c r="G133" t="n">
+        <v>54.00666666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>53.66500000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>800</v>
       </c>
       <c r="G134" t="n">
+        <v>53.91333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>53.68333333333335</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>2482</v>
       </c>
       <c r="G135" t="n">
+        <v>53.80666666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>53.69666666666669</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>1618.886</v>
       </c>
       <c r="G136" t="n">
+        <v>53.73999999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>53.71333333333335</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>3004.2239</v>
       </c>
       <c r="G137" t="n">
+        <v>53.66666666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>53.71666666666669</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>6078.3591</v>
       </c>
       <c r="G138" t="n">
+        <v>53.63333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>53.71833333333336</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>40749.5333</v>
       </c>
       <c r="G139" t="n">
+        <v>53.55333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>53.70833333333336</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>8737.1104</v>
       </c>
       <c r="G140" t="n">
+        <v>53.40666666666666</v>
+      </c>
+      <c r="H140" t="n">
         <v>53.70000000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>28221.9999</v>
       </c>
       <c r="G141" t="n">
+        <v>53.29999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>53.69833333333336</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>800</v>
       </c>
       <c r="G142" t="n">
+        <v>53.15999999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>53.68833333333336</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>23621.3207</v>
       </c>
       <c r="G143" t="n">
+        <v>53.00666666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>53.67833333333336</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>1419.5</v>
       </c>
       <c r="G144" t="n">
+        <v>52.99333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>53.68000000000003</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>10</v>
       </c>
       <c r="G145" t="n">
+        <v>52.92666666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>53.6616666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>23</v>
       </c>
       <c r="G146" t="n">
+        <v>52.85999999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>53.64333333333336</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>2710.8162</v>
       </c>
       <c r="G147" t="n">
+        <v>52.80666666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>53.6316666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>52821.7535</v>
       </c>
       <c r="G148" t="n">
+        <v>52.77333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>53.63333333333336</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>2103</v>
       </c>
       <c r="G149" t="n">
+        <v>52.73333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>53.62833333333336</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>1000</v>
       </c>
       <c r="G150" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="H150" t="n">
         <v>53.62166666666669</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>23</v>
       </c>
       <c r="G151" t="n">
+        <v>52.60666666666665</v>
+      </c>
+      <c r="H151" t="n">
         <v>53.61500000000003</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>2103</v>
       </c>
       <c r="G152" t="n">
+        <v>52.56666666666665</v>
+      </c>
+      <c r="H152" t="n">
         <v>53.6066666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>2696</v>
       </c>
       <c r="G153" t="n">
+        <v>52.53333333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>53.57833333333337</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>1000</v>
       </c>
       <c r="G154" t="n">
+        <v>52.53999999999998</v>
+      </c>
+      <c r="H154" t="n">
         <v>53.5516666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>77483.2749</v>
       </c>
       <c r="G155" t="n">
+        <v>52.51999999999998</v>
+      </c>
+      <c r="H155" t="n">
         <v>53.51833333333337</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>2899.3604</v>
       </c>
       <c r="G156" t="n">
+        <v>52.46666666666665</v>
+      </c>
+      <c r="H156" t="n">
         <v>53.47500000000004</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>13347.2962</v>
       </c>
       <c r="G157" t="n">
+        <v>52.43999999999998</v>
+      </c>
+      <c r="H157" t="n">
         <v>53.43833333333338</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>1752.4966</v>
       </c>
       <c r="G158" t="n">
+        <v>52.41999999999999</v>
+      </c>
+      <c r="H158" t="n">
         <v>53.39666666666671</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>215</v>
       </c>
       <c r="G159" t="n">
+        <v>52.35333333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>53.3666666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>4400</v>
       </c>
       <c r="G160" t="n">
+        <v>52.33333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>53.33833333333337</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>2463</v>
       </c>
       <c r="G161" t="n">
+        <v>52.31333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>53.31500000000003</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>7573</v>
       </c>
       <c r="G162" t="n">
+        <v>52.24666666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>53.29000000000003</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>3395.8946</v>
       </c>
       <c r="G163" t="n">
+        <v>52.18666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>53.2616666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>5976.1032</v>
       </c>
       <c r="G164" t="n">
+        <v>52.13999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>53.2316666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>4752.9999</v>
       </c>
       <c r="G165" t="n">
+        <v>52.09999999999999</v>
+      </c>
+      <c r="H165" t="n">
         <v>53.20666666666671</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>2600</v>
       </c>
       <c r="G166" t="n">
+        <v>52.13333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>53.19000000000004</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>1941.528</v>
       </c>
       <c r="G167" t="n">
+        <v>52.13999999999999</v>
+      </c>
+      <c r="H167" t="n">
         <v>53.16666666666671</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>5899.9228</v>
       </c>
       <c r="G168" t="n">
+        <v>52.17333333333332</v>
+      </c>
+      <c r="H168" t="n">
         <v>53.15000000000004</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>1853.5568</v>
       </c>
       <c r="G169" t="n">
+        <v>52.20666666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>53.1316666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>90</v>
       </c>
       <c r="G170" t="n">
+        <v>52.23333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>53.09500000000004</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>688.6701</v>
       </c>
       <c r="G171" t="n">
+        <v>52.29333333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>53.08500000000004</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>5153.3996</v>
       </c>
       <c r="G172" t="n">
+        <v>52.35999999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>53.07666666666671</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>1498.283</v>
       </c>
       <c r="G173" t="n">
+        <v>52.41999999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>53.05166666666671</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>68.1698</v>
       </c>
       <c r="G174" t="n">
+        <v>52.47333333333332</v>
+      </c>
+      <c r="H174" t="n">
         <v>53.02666666666671</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>102.503</v>
       </c>
       <c r="G175" t="n">
+        <v>52.53333333333332</v>
+      </c>
+      <c r="H175" t="n">
         <v>53.00166666666671</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>3959.9314</v>
       </c>
       <c r="G176" t="n">
+        <v>52.55333333333331</v>
+      </c>
+      <c r="H176" t="n">
         <v>52.96666666666671</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>3907.7966</v>
       </c>
       <c r="G177" t="n">
+        <v>52.62666666666665</v>
+      </c>
+      <c r="H177" t="n">
         <v>52.94166666666671</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>1261.7163</v>
       </c>
       <c r="G178" t="n">
+        <v>52.67999999999998</v>
+      </c>
+      <c r="H178" t="n">
         <v>52.91166666666672</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>5543</v>
       </c>
       <c r="G179" t="n">
+        <v>52.73999999999998</v>
+      </c>
+      <c r="H179" t="n">
         <v>52.88166666666672</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>14373.4937</v>
       </c>
       <c r="G180" t="n">
+        <v>52.79999999999998</v>
+      </c>
+      <c r="H180" t="n">
         <v>52.85166666666672</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>827</v>
       </c>
       <c r="G181" t="n">
+        <v>52.79999999999998</v>
+      </c>
+      <c r="H181" t="n">
         <v>52.82000000000006</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>1778.2386</v>
       </c>
       <c r="G182" t="n">
+        <v>52.82666666666664</v>
+      </c>
+      <c r="H182" t="n">
         <v>52.80000000000007</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>939.9999</v>
       </c>
       <c r="G183" t="n">
+        <v>52.82666666666664</v>
+      </c>
+      <c r="H183" t="n">
         <v>52.79166666666674</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>2935.6425</v>
       </c>
       <c r="G184" t="n">
+        <v>52.82666666666664</v>
+      </c>
+      <c r="H184" t="n">
         <v>52.78166666666674</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>4132</v>
       </c>
       <c r="G185" t="n">
+        <v>52.85333333333331</v>
+      </c>
+      <c r="H185" t="n">
         <v>52.75333333333341</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>18892.1334</v>
       </c>
       <c r="G186" t="n">
+        <v>52.87333333333331</v>
+      </c>
+      <c r="H186" t="n">
         <v>52.7333333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>195.2532</v>
       </c>
       <c r="G187" t="n">
+        <v>52.89333333333331</v>
+      </c>
+      <c r="H187" t="n">
         <v>52.7133333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>1031</v>
       </c>
       <c r="G188" t="n">
+        <v>52.88666666666664</v>
+      </c>
+      <c r="H188" t="n">
         <v>52.68333333333341</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
+        <v>52.87999999999997</v>
+      </c>
+      <c r="H189" t="n">
         <v>52.67500000000008</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>904.9403</v>
       </c>
       <c r="G190" t="n">
+        <v>52.87333333333331</v>
+      </c>
+      <c r="H190" t="n">
         <v>52.66666666666674</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>4714.1243</v>
       </c>
       <c r="G191" t="n">
+        <v>52.90666666666664</v>
+      </c>
+      <c r="H191" t="n">
         <v>52.65833333333341</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>10174.5479</v>
       </c>
       <c r="G192" t="n">
+        <v>52.88666666666663</v>
+      </c>
+      <c r="H192" t="n">
         <v>52.64166666666674</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>546.1969</v>
       </c>
       <c r="G193" t="n">
+        <v>52.87333333333331</v>
+      </c>
+      <c r="H193" t="n">
         <v>52.62833333333341</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>2024.3219</v>
       </c>
       <c r="G194" t="n">
+        <v>52.86666666666665</v>
+      </c>
+      <c r="H194" t="n">
         <v>52.62000000000008</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>1903</v>
       </c>
       <c r="G195" t="n">
+        <v>52.85333333333332</v>
+      </c>
+      <c r="H195" t="n">
         <v>52.61333333333341</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>1913.457</v>
       </c>
       <c r="G196" t="n">
+        <v>52.84666666666666</v>
+      </c>
+      <c r="H196" t="n">
         <v>52.59666666666674</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>9839.624400000001</v>
       </c>
       <c r="G197" t="n">
+        <v>52.83333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>52.59166666666673</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>19087.3866</v>
       </c>
       <c r="G198" t="n">
+        <v>52.79999999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>52.5833333333334</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>2638.5555</v>
       </c>
       <c r="G199" t="n">
+        <v>52.79333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>52.59166666666673</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>1194.9647</v>
       </c>
       <c r="G200" t="n">
+        <v>52.76666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>52.5933333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>30</v>
       </c>
       <c r="G201" t="n">
+        <v>52.71333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>52.58666666666673</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>816.9999</v>
       </c>
       <c r="G202" t="n">
+        <v>52.65333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>52.58666666666673</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>636.7713</v>
       </c>
       <c r="G203" t="n">
+        <v>52.61333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>52.58500000000006</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>483.7035</v>
       </c>
       <c r="G204" t="n">
+        <v>52.58</v>
+      </c>
+      <c r="H204" t="n">
         <v>52.57166666666674</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>1337.5555</v>
       </c>
       <c r="G205" t="n">
+        <v>52.54666666666666</v>
+      </c>
+      <c r="H205" t="n">
         <v>52.57166666666674</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>22842.4235</v>
       </c>
       <c r="G206" t="n">
+        <v>52.50666666666666</v>
+      </c>
+      <c r="H206" t="n">
         <v>52.57000000000007</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>5216.6586</v>
       </c>
       <c r="G207" t="n">
+        <v>52.47333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>52.55833333333341</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>3912.4952</v>
       </c>
       <c r="G208" t="n">
+        <v>52.45333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>52.54833333333341</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>3636</v>
       </c>
       <c r="G209" t="n">
+        <v>52.41999999999999</v>
+      </c>
+      <c r="H209" t="n">
         <v>52.54166666666674</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>16814.0182</v>
       </c>
       <c r="G210" t="n">
+        <v>52.39333333333332</v>
+      </c>
+      <c r="H210" t="n">
         <v>52.53666666666674</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>137.8028</v>
       </c>
       <c r="G211" t="n">
+        <v>52.35999999999999</v>
+      </c>
+      <c r="H211" t="n">
         <v>52.53500000000007</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>195.4261</v>
       </c>
       <c r="G212" t="n">
+        <v>52.33333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>52.5333333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>526.0803</v>
       </c>
       <c r="G213" t="n">
+        <v>52.33333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>52.5333333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>6876.3494</v>
       </c>
       <c r="G214" t="n">
+        <v>52.26666666666666</v>
+      </c>
+      <c r="H214" t="n">
         <v>52.52333333333339</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>518.8871</v>
       </c>
       <c r="G215" t="n">
+        <v>52.20666666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>52.51500000000006</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>24</v>
       </c>
       <c r="G216" t="n">
+        <v>52.14666666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>52.50666666666672</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>1384.0115</v>
       </c>
       <c r="G217" t="n">
+        <v>52.09333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>52.50000000000005</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>7005.5676</v>
       </c>
       <c r="G218" t="n">
+        <v>52.04</v>
+      </c>
+      <c r="H218" t="n">
         <v>52.49000000000005</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>16930.4622</v>
       </c>
       <c r="G219" t="n">
+        <v>51.96000000000001</v>
+      </c>
+      <c r="H219" t="n">
         <v>52.47333333333339</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>32527.7042</v>
       </c>
       <c r="G220" t="n">
+        <v>51.86666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>52.45500000000006</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>1600</v>
       </c>
       <c r="G221" t="n">
+        <v>51.77333333333334</v>
+      </c>
+      <c r="H221" t="n">
         <v>52.43500000000006</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>10487.5836</v>
       </c>
       <c r="G222" t="n">
+        <v>51.65333333333334</v>
+      </c>
+      <c r="H222" t="n">
         <v>52.41000000000006</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>27127.9283</v>
       </c>
       <c r="G223" t="n">
+        <v>51.53333333333335</v>
+      </c>
+      <c r="H223" t="n">
         <v>52.38500000000006</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>880.6235</v>
       </c>
       <c r="G224" t="n">
+        <v>51.42666666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>52.36333333333339</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>5065.9651</v>
       </c>
       <c r="G225" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="H225" t="n">
         <v>52.34500000000006</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>8631.3277</v>
       </c>
       <c r="G226" t="n">
+        <v>51.22666666666667</v>
+      </c>
+      <c r="H226" t="n">
         <v>52.30833333333339</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>9747.9457</v>
       </c>
       <c r="G227" t="n">
+        <v>51.11333333333334</v>
+      </c>
+      <c r="H227" t="n">
         <v>52.27666666666672</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>845.1659</v>
       </c>
       <c r="G228" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="H228" t="n">
         <v>52.23500000000005</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9079,25 @@
         <v>2560.344</v>
       </c>
       <c r="G229" t="n">
+        <v>50.88666666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>52.19333333333338</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="L229" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9121,29 @@
         <v>1335.3496</v>
       </c>
       <c r="G230" t="n">
+        <v>50.80666666666666</v>
+      </c>
+      <c r="H230" t="n">
         <v>52.15833333333339</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="L230" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,22 +9167,29 @@
         <v>1240.2229</v>
       </c>
       <c r="G231" t="n">
+        <v>50.72666666666666</v>
+      </c>
+      <c r="H231" t="n">
         <v>52.11500000000005</v>
       </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="K231" t="n">
         <v>50.3</v>
       </c>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8502,108 +9213,117 @@
         <v>721.6661</v>
       </c>
       <c r="G232" t="n">
+        <v>50.63999999999999</v>
+      </c>
+      <c r="H232" t="n">
         <v>52.07000000000006</v>
       </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="K232" t="n">
         <v>50.3</v>
       </c>
-      <c r="L232" t="inlineStr">
+      <c r="L232" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C233" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2197.061</v>
+      </c>
+      <c r="G233" t="n">
+        <v>50.55333333333332</v>
+      </c>
+      <c r="H233" t="n">
+        <v>52.02333333333339</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="L233" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="M233" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
         <v>50.2</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C234" t="n">
         <v>50.2</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D234" t="n">
         <v>50.2</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E234" t="n">
         <v>50.2</v>
       </c>
-      <c r="F233" t="n">
-        <v>2197.061</v>
-      </c>
-      <c r="G233" t="n">
-        <v>52.02333333333339</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
+      <c r="F234" t="n">
+        <v>2076.0478</v>
+      </c>
+      <c r="G234" t="n">
+        <v>50.48666666666666</v>
+      </c>
+      <c r="H234" t="n">
+        <v>51.97666666666672</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="L234" t="n">
         <v>50.3</v>
       </c>
-      <c r="K233" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="M234" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2076.0478</v>
-      </c>
-      <c r="G234" t="n">
-        <v>51.97666666666672</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K234" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8627,24 +9347,481 @@
         <v>5726.8912</v>
       </c>
       <c r="G235" t="n">
+        <v>50.43333333333332</v>
+      </c>
+      <c r="H235" t="n">
         <v>51.93000000000005</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="n">
         <v>50.2</v>
       </c>
-      <c r="L235" t="inlineStr">
+      <c r="L235" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>824.7011</v>
+      </c>
+      <c r="G236" t="n">
+        <v>50.38666666666666</v>
+      </c>
+      <c r="H236" t="n">
+        <v>51.89333333333338</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M236" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C237" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E237" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>630</v>
+      </c>
+      <c r="G237" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="H237" t="n">
+        <v>51.84333333333338</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E238" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4671.5318</v>
+      </c>
+      <c r="G238" t="n">
+        <v>50.33333333333334</v>
+      </c>
+      <c r="H238" t="n">
+        <v>51.79833333333337</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>50</v>
+      </c>
+      <c r="D239" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>50</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5472</v>
+      </c>
+      <c r="G239" t="n">
+        <v>50.29333333333333</v>
+      </c>
+      <c r="H239" t="n">
+        <v>51.7516666666667</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>50</v>
+      </c>
+      <c r="C240" t="n">
+        <v>50</v>
+      </c>
+      <c r="D240" t="n">
+        <v>50</v>
+      </c>
+      <c r="E240" t="n">
+        <v>50</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6812.6756</v>
+      </c>
+      <c r="G240" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="H240" t="n">
+        <v>51.70500000000003</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>50</v>
+      </c>
+      <c r="L240" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C241" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D241" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E241" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22693.5395</v>
+      </c>
+      <c r="G241" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="H241" t="n">
+        <v>51.66333333333337</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>50</v>
+      </c>
+      <c r="L241" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C242" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G242" t="n">
+        <v>50.26666666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>51.63666666666669</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="L242" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C243" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D243" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E243" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F243" t="n">
+        <v>29649.4414</v>
+      </c>
+      <c r="G243" t="n">
+        <v>50.32666666666668</v>
+      </c>
+      <c r="H243" t="n">
+        <v>51.61000000000002</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="L243" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>51</v>
+      </c>
+      <c r="C244" t="n">
+        <v>51</v>
+      </c>
+      <c r="D244" t="n">
+        <v>51</v>
+      </c>
+      <c r="E244" t="n">
+        <v>51</v>
+      </c>
+      <c r="F244" t="n">
+        <v>12</v>
+      </c>
+      <c r="G244" t="n">
+        <v>50.37333333333334</v>
+      </c>
+      <c r="H244" t="n">
+        <v>51.58000000000002</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E245" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F245" t="n">
+        <v>6926</v>
+      </c>
+      <c r="G245" t="n">
+        <v>50.41333333333334</v>
+      </c>
+      <c r="H245" t="n">
+        <v>51.54833333333335</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N303"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>22934789.8864</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>22937094.8864</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="J3" t="n">
         <v>50.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>22937094.8864</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="J4" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>50.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>22937490.8864</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>51.1</v>
       </c>
       <c r="J5" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>50.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="J6" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>50.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J7" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,26 +685,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J8" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -752,26 +726,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J9" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -796,26 +767,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J10" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -840,26 +808,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J11" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -884,26 +849,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J12" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,26 +890,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J13" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -972,26 +931,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J14" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K14" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1016,26 +972,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J15" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1060,26 +1013,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J16" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1104,26 +1054,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J17" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1148,26 +1095,23 @@
         <v>22941752.1736</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J18" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1192,26 +1136,23 @@
         <v>22637940.78</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>51.8</v>
       </c>
       <c r="J19" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1236,26 +1177,23 @@
         <v>22637940.78</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="J20" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1280,26 +1218,23 @@
         <v>40448040.78</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="J21" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>50.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1324,24 +1259,23 @@
         <v>40448040.78</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1368,22 +1302,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1410,22 +1341,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1452,22 +1380,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1494,22 +1419,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1536,22 +1458,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1578,22 +1497,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1620,22 +1536,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1662,22 +1575,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1704,22 +1614,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1746,22 +1653,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1788,22 +1692,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1830,22 +1731,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1872,22 +1770,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1914,22 +1809,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1956,22 +1848,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1998,22 +1887,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2040,22 +1926,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2082,22 +1965,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2124,22 +2004,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2166,22 +2043,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2208,22 +2082,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2250,22 +2121,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2292,22 +2160,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2334,22 +2199,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2376,22 +2238,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2418,22 +2277,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2460,22 +2316,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2502,22 +2355,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2544,22 +2394,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2586,22 +2433,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2628,22 +2472,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2670,22 +2511,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2712,22 +2550,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2754,22 +2589,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2796,22 +2628,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2838,22 +2667,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2880,22 +2706,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2922,22 +2745,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2964,22 +2784,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3006,22 +2823,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3048,22 +2862,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3090,22 +2901,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3132,22 +2940,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3174,22 +2979,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3216,22 +3018,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3258,22 +3057,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3300,22 +3096,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3342,22 +3135,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3384,22 +3174,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3426,22 +3213,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3468,22 +3252,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3510,22 +3291,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3552,22 +3330,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3594,22 +3369,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3636,22 +3408,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3678,22 +3447,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3720,22 +3486,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3762,22 +3525,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3804,22 +3564,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3846,22 +3603,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3888,22 +3642,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3930,22 +3681,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3972,22 +3720,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4014,22 +3759,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4056,22 +3798,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4098,22 +3837,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4140,22 +3876,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4182,22 +3915,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4224,22 +3954,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4266,22 +3993,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4308,22 +4032,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4350,22 +4071,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4392,22 +4110,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4434,22 +4149,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4476,22 +4188,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4518,22 +4227,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4560,22 +4266,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4602,22 +4305,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4644,22 +4344,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4686,22 +4383,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4728,22 +4422,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4770,22 +4461,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4812,22 +4500,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4854,22 +4539,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4896,22 +4578,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4938,22 +4617,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4980,22 +4656,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5022,22 +4695,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5064,22 +4734,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5106,22 +4773,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5148,22 +4812,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5190,22 +4851,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5232,22 +4890,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5274,22 +4929,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5316,22 +4968,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5358,22 +5007,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5400,22 +5046,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5442,22 +5085,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5484,22 +5124,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5526,22 +5163,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5568,22 +5202,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5610,22 +5241,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5652,22 +5280,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5694,22 +5319,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5736,22 +5358,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5778,22 +5397,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5820,22 +5436,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5862,22 +5475,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5904,22 +5514,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5946,22 +5553,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5988,22 +5592,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6030,22 +5631,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6072,22 +5670,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6114,22 +5709,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6156,22 +5748,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6198,22 +5787,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6240,22 +5826,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6282,22 +5865,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6324,22 +5904,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6366,22 +5943,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6408,22 +5982,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6450,24 +6021,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1.056507936507937</v>
-      </c>
-      <c r="N144" t="n">
-        <v>1.023809523809524</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6494,16 +6060,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6530,16 +6099,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6566,16 +6138,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6602,16 +6177,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6638,16 +6216,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6674,16 +6255,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6710,16 +6294,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6746,16 +6333,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6782,16 +6372,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6818,16 +6411,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6852,18 +6448,23 @@
         <v>34391945.17419998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.070396825396826</v>
+      </c>
       <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>1.023809523809524</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6888,18 +6489,15 @@
         <v>34447141.31379998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6924,18 +6522,15 @@
         <v>34439048.97069999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6960,18 +6555,15 @@
         <v>34435738.75449999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6996,18 +6588,15 @@
         <v>34406852.72739999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7032,18 +6621,15 @@
         <v>34406852.72739999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7070,16 +6656,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7106,16 +6689,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7142,16 +6722,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7176,18 +6753,15 @@
         <v>34404138.12029999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7214,16 +6788,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7248,18 +6819,15 @@
         <v>34404138.12029999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7286,16 +6854,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7320,18 +6885,15 @@
         <v>34410802.50199999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7356,18 +6918,15 @@
         <v>34405319.98409999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7394,16 +6953,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7430,16 +6986,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7466,16 +7019,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7502,16 +7052,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7538,16 +7085,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7574,16 +7118,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7610,16 +7151,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7644,18 +7182,15 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7680,18 +7215,15 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7718,16 +7250,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7754,16 +7283,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7790,16 +7316,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7826,16 +7349,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7862,16 +7382,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7896,18 +7413,15 @@
         <v>34335573.38789999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7934,16 +7448,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7970,16 +7481,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8006,16 +7514,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8042,16 +7547,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8078,16 +7580,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8114,16 +7613,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8150,16 +7646,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8186,16 +7679,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8222,16 +7712,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8256,18 +7743,15 @@
         <v>34334819.1703</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8292,18 +7776,15 @@
         <v>34331814.9464</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8328,18 +7809,15 @@
         <v>34325736.5873</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8366,16 +7844,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8402,16 +7877,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8438,16 +7910,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8472,18 +7941,15 @@
         <v>34321146.1643</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8508,18 +7974,15 @@
         <v>34321146.1643</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8544,18 +8007,15 @@
         <v>34322565.6643</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8580,18 +8040,15 @@
         <v>34322555.6643</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8616,18 +8073,15 @@
         <v>34322555.6643</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8652,18 +8106,15 @@
         <v>34325266.48050001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8690,16 +8141,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8726,16 +8174,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8762,16 +8207,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8798,16 +8240,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8834,16 +8273,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8870,16 +8306,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8906,16 +8339,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8942,16 +8372,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8978,16 +8405,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9014,16 +8438,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9050,16 +8471,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9086,16 +8504,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9120,18 +8535,15 @@
         <v>34189402.94870001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9158,16 +8570,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9194,16 +8603,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9230,16 +8636,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9264,18 +8667,15 @@
         <v>34175853.84550001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9302,16 +8702,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9338,16 +8735,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9374,16 +8768,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9410,16 +8801,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9446,16 +8834,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9482,16 +8867,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9518,16 +8900,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9554,16 +8933,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9590,16 +8966,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9626,16 +8999,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9662,16 +9032,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9698,16 +9065,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9734,16 +9098,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9770,16 +9131,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9806,16 +9164,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9842,16 +9197,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9878,16 +9230,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9914,16 +9263,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9950,16 +9296,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9986,16 +9329,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10022,16 +9362,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10058,16 +9395,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10094,16 +9428,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10130,16 +9461,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10166,16 +9494,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10202,16 +9527,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10238,16 +9560,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10274,16 +9593,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10310,16 +9626,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10346,16 +9659,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10382,16 +9692,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10418,16 +9725,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10454,16 +9758,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10490,16 +9791,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10526,16 +9824,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10562,16 +9857,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10598,16 +9890,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10634,16 +9923,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10670,16 +9956,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10706,16 +9989,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10742,16 +10022,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10778,16 +10055,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10814,16 +10088,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10850,16 +10121,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10886,16 +10154,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10922,16 +10187,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10958,16 +10220,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10994,16 +10253,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11030,16 +10286,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11066,16 +10319,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11102,16 +10352,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11138,16 +10385,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11174,16 +10418,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11210,16 +10451,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11246,16 +10484,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11282,16 +10517,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11316,24 +10548,15 @@
         <v>34078557.08940002</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="n">
-        <v>51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11358,24 +10581,15 @@
         <v>34068069.50580002</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="n">
-        <v>50.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11400,24 +10614,15 @@
         <v>34068069.50580002</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11442,24 +10647,15 @@
         <v>34068950.12930001</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11484,24 +10680,15 @@
         <v>34074016.09440001</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11526,24 +10713,15 @@
         <v>34065384.76670001</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11568,24 +10746,15 @@
         <v>34055636.82100002</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11610,24 +10779,15 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11652,24 +10812,15 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11694,24 +10845,15 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11736,24 +10878,15 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11778,24 +10911,15 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11820,24 +10944,15 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11862,24 +10977,15 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="n">
-        <v>50.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11904,24 +11010,15 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="n">
-        <v>50.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11946,24 +11043,15 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="n">
-        <v>50.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11988,24 +11076,15 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="n">
-        <v>50.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12030,24 +11109,15 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="n">
-        <v>50.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12072,24 +11142,15 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>50.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12114,24 +11175,19 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J298" t="n">
         <v>50</v>
       </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12156,24 +11212,21 @@
         <v>34069186.13360002</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>50</v>
       </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12198,24 +11251,23 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="J300" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12240,24 +11292,15 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="n">
-        <v>51.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12282,24 +11325,15 @@
         <v>34071017.13360002</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="n">
-        <v>51.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12326,22 +11360,15 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>22934789.8864</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>22937094.8864</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>50.4</v>
@@ -521,7 +521,7 @@
         <v>22937094.8864</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>51.1</v>
@@ -562,7 +562,7 @@
         <v>22937490.8864</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>51.1</v>
@@ -603,7 +603,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>51.6</v>
@@ -644,7 +644,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>51.8</v>
@@ -685,7 +685,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>51.8</v>
@@ -726,7 +726,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>51.8</v>
@@ -767,7 +767,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>51.8</v>
@@ -808,7 +808,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>51.8</v>
@@ -849,7 +849,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>51.8</v>
@@ -890,7 +890,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>51.8</v>
@@ -931,7 +931,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>51.8</v>
@@ -972,7 +972,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>51.8</v>
@@ -1013,7 +1013,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>51.8</v>
@@ -1054,7 +1054,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>51.8</v>
@@ -1095,7 +1095,7 @@
         <v>22941752.1736</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>51.8</v>
@@ -1136,7 +1136,7 @@
         <v>22637940.78</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>51.8</v>
@@ -1177,7 +1177,7 @@
         <v>22637940.78</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>51.6</v>
@@ -1218,7 +1218,7 @@
         <v>40448040.78</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>51.6</v>
@@ -1259,11 +1259,9 @@
         <v>40448040.78</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>51.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>50.4</v>
       </c>
@@ -2587,9 +2585,11 @@
         <v>34207326.9078</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>51.7</v>
+      </c>
       <c r="J56" t="n">
         <v>50.4</v>
       </c>
@@ -2626,9 +2626,11 @@
         <v>34212735.9078</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>51.8</v>
+      </c>
       <c r="J57" t="n">
         <v>50.4</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>34391945.17419998</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
@@ -6456,15 +6458,13 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.070396825396826</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1.023809523809524</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6489,11 +6489,17 @@
         <v>34447141.31379998</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6522,11 +6528,17 @@
         <v>34439048.97069999</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6555,11 +6567,17 @@
         <v>34435738.75449999</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6588,11 +6606,17 @@
         <v>34406852.72739999</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6645,17 @@
         <v>34406852.72739999</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +6687,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6690,8 +6726,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6801,17 @@
         <v>34404138.12029999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6789,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +6879,17 @@
         <v>34404138.12029999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6855,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6957,17 @@
         <v>34410802.50199999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6996,17 @@
         <v>34405319.98409999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6954,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6987,8 +7077,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7020,8 +7116,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7050,15 +7152,23 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>1.076349206349206</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.023809523809524</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7116,7 +7226,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7149,7 +7259,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7182,7 +7292,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7215,7 +7325,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7248,7 +7358,7 @@
         <v>34423661.98359999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7281,7 +7391,7 @@
         <v>34354799.72969999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7413,7 +7523,7 @@
         <v>34335573.38789999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7545,7 +7655,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7578,7 +7688,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7611,7 +7721,7 @@
         <v>34340177.5894</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7644,7 +7754,7 @@
         <v>34336482.2843</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7677,7 +7787,7 @@
         <v>34335682.2843</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7710,7 +7820,7 @@
         <v>34333200.2843</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7743,7 +7853,7 @@
         <v>34334819.1703</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7776,7 +7886,7 @@
         <v>34331814.9464</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7809,7 +7919,7 @@
         <v>34325736.5873</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7842,7 +7952,7 @@
         <v>34284987.05400001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7875,7 +7985,7 @@
         <v>34293724.1644</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7908,7 +8018,7 @@
         <v>34321946.1643</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7941,7 +8051,7 @@
         <v>34321146.1643</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7974,7 +8084,7 @@
         <v>34321146.1643</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8007,7 +8117,7 @@
         <v>34322565.6643</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8040,7 +8150,7 @@
         <v>34322555.6643</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8073,7 +8183,7 @@
         <v>34322555.6643</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8106,7 +8216,7 @@
         <v>34325266.48050001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8535,7 +8645,7 @@
         <v>34189402.94870001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8667,7 +8777,7 @@
         <v>34175853.84550001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -11175,14 +11285,10 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>50</v>
-      </c>
-      <c r="J298" t="n">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
@@ -11215,14 +11321,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>50</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11251,19 +11351,11 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J300" t="n">
-        <v>50</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11369,6 +11461,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>22934789.8864</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>22937094.8864</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50.4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>22937094.8864</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>22937490.8864</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>22941752.1736</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>22637940.78</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>22637940.78</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>40448040.78</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,17 +1111,11 @@
         <v>40448040.78</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1298,17 +1144,11 @@
         <v>40448040.78</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1337,17 +1177,11 @@
         <v>40448040.78</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1376,17 +1210,11 @@
         <v>40448040.78</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1415,17 +1243,11 @@
         <v>40448040.78</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1454,17 +1276,11 @@
         <v>55557911.3977</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1493,17 +1309,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1532,17 +1342,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1571,17 +1375,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1610,17 +1408,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1649,17 +1441,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1688,17 +1474,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1805,17 +1573,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1844,17 +1606,11 @@
         <v>34137911.3977</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1886,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1925,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1964,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2003,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2042,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2081,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2120,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2237,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2276,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2315,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2354,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2393,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2432,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2471,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2510,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2585,19 +2233,11 @@
         <v>34207326.9078</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2626,19 +2266,11 @@
         <v>34212735.9078</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2670,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2709,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2748,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2787,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2826,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2865,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2904,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2943,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2982,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3021,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3060,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3099,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3138,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3177,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3216,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3255,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3294,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3333,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3372,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3411,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3450,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3489,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3528,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3567,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3606,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3645,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3684,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3723,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3762,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3801,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3840,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3879,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3918,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3957,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3996,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4035,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4074,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4113,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4152,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4191,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4230,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4269,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4308,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4347,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4386,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4425,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4464,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4503,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4542,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4581,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4620,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4659,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4698,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4737,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4776,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4815,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4851,17 +4147,11 @@
         <v>34225671.0526</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4890,17 +4180,11 @@
         <v>34225637.942</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4932,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4971,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5010,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5049,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5088,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5166,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5205,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5244,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5283,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5322,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5361,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5400,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5439,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5517,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5556,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5595,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5634,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5673,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5712,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5751,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5790,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5829,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5907,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5985,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6102,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6141,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6180,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6258,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6297,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6336,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6570,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6648,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6687,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6726,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6765,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6804,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6882,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6921,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7152,23 +6094,15 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>1.076349206349206</v>
-      </c>
-      <c r="M173" t="n">
-        <v>1.023809523809524</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7226,7 +6160,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7259,7 +6193,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7292,7 +6226,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7325,7 +6259,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7358,7 +6292,7 @@
         <v>34423661.98359999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7391,7 +6325,7 @@
         <v>34354799.72969999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7655,7 +6589,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7688,7 +6622,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7721,7 +6655,7 @@
         <v>34340177.5894</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7754,7 +6688,7 @@
         <v>34336482.2843</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7787,7 +6721,7 @@
         <v>34335682.2843</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7820,7 +6754,7 @@
         <v>34333200.2843</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7853,7 +6787,7 @@
         <v>34334819.1703</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7886,7 +6820,7 @@
         <v>34331814.9464</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7919,7 +6853,7 @@
         <v>34325736.5873</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7952,7 +6886,7 @@
         <v>34284987.05400001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7985,7 +6919,7 @@
         <v>34293724.1644</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8018,7 +6952,7 @@
         <v>34321946.1643</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8051,7 +6985,7 @@
         <v>34321146.1643</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8084,7 +7018,7 @@
         <v>34321146.1643</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8117,7 +7051,7 @@
         <v>34322565.6643</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8150,7 +7084,7 @@
         <v>34322555.6643</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -10889,10 +9823,14 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J286" t="n">
+        <v>50.5</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
@@ -10922,11 +9860,19 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J287" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10955,11 +9901,19 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J288" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10988,10 +9942,14 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J289" t="n">
+        <v>50.3</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
@@ -11021,11 +9979,19 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J290" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11054,11 +10020,19 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J291" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11087,10 +10061,14 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J292" t="n">
+        <v>50.2</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -11120,11 +10098,19 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J293" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11153,11 +10139,19 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11186,11 +10180,19 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J295" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11219,11 +10221,19 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="J296" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +10262,19 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11285,11 +10303,19 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>50</v>
+      </c>
+      <c r="J298" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11318,11 +10344,19 @@
         <v>34069186.13360002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>50</v>
+      </c>
+      <c r="J299" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11351,11 +10385,19 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J300" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +10429,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +10468,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11453,14 +10507,20 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest POWR.xlsx
+++ b/BackTest/2019-10-26 BackTest POWR.xlsx
@@ -451,7 +451,7 @@
         <v>22934789.8864</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>22937094.8864</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.4</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>22937094.8864</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>22937490.8864</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>22941752.1736</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1016,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1055,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1094,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1133,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1172,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1211,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1247,17 @@
         <v>40448040.78</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1286,17 @@
         <v>40448040.78</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1325,17 @@
         <v>40448040.78</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1364,17 @@
         <v>40448040.78</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1403,17 @@
         <v>40448040.78</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1442,17 @@
         <v>55557911.3977</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1481,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1520,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1559,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1598,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1637,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1676,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1757,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1793,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1832,17 @@
         <v>34137911.3977</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1874,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1913,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2303,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2420,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2459,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2498,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3239,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3746,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4175,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4253,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4331,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4835,17 @@
         <v>34225671.0526</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4874,17 @@
         <v>34225637.942</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6398,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,15 +6473,23 @@
         <v>34447141.31379998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>1.078333333333334</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.023809523809524</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5566,7 +6514,7 @@
         <v>34439048.97069999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5863,7 +6811,7 @@
         <v>34404138.12029999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +6910,7 @@
         <v>34405319.98409999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6061,7 +7009,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +7042,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +7075,7 @@
         <v>34406072.00439999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +7108,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +7141,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +7174,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +7207,7 @@
         <v>34423072.00439999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +7240,7 @@
         <v>34423661.98359999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +7273,7 @@
         <v>34354799.72969999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +7306,7 @@
         <v>34331940.38779999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +7339,7 @@
         <v>34338040.38779999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +7405,7 @@
         <v>34335573.38789999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +7438,7 @@
         <v>34337818.9334</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7471,7 @@
         <v>34341338.9334</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +7504,7 @@
         <v>34336538.9334</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -9823,14 +10771,10 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J286" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
@@ -9860,19 +10804,11 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J287" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9901,19 +10837,11 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J288" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9942,14 +10870,10 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J289" t="n">
-        <v>50.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
@@ -9979,19 +10903,11 @@
         <v>34054791.65510002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J290" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10020,19 +10936,11 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J291" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10061,14 +10969,10 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J292" t="n">
-        <v>50.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
@@ -10098,19 +11002,11 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J293" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10139,19 +11035,11 @@
         <v>34052594.59410002</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J294" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10180,19 +11068,11 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J295" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10221,19 +11101,11 @@
         <v>34051964.59410002</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="J296" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10262,19 +11134,11 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="J297" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10303,19 +11167,11 @@
         <v>34046492.59410002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>50</v>
-      </c>
-      <c r="J298" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10344,19 +11200,11 @@
         <v>34069186.13360002</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>50</v>
-      </c>
-      <c r="J299" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10385,19 +11233,11 @@
         <v>34071029.13360002</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J300" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10429,14 +11269,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10468,14 +11302,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10507,14 +11335,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
